--- a/scr/data/20241215_finish_batch3-small-med.xlsx
+++ b/scr/data/20241215_finish_batch3-small-med.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331BC8F-5B04-49A0-889B-EF67347CA04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34504BE5-7F88-4EA2-8B76-81C1875639B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25830" yWindow="1530" windowWidth="17280" windowHeight="10155" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
+    <workbookView xWindow="-38520" yWindow="-15" windowWidth="38640" windowHeight="15990" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$554</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$553</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4998" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="554">
   <si>
     <t>customer_name</t>
   </si>
@@ -1895,19 +1895,19 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6699"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2221,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB3797-9B7D-400C-A811-52216776806E}">
-  <dimension ref="A1:V554"/>
+  <dimension ref="A1:V553"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A425" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B447" sqref="B447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29257,43 +29257,43 @@
     </row>
     <row r="454" spans="1:20">
       <c r="A454" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>193</v>
+        <v>429</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="F454" s="4">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="G454" s="5">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="H454" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I454" s="7">
-        <v>-7408</v>
+        <v>-46</v>
       </c>
       <c r="J454" s="8">
-        <v>8554.8672000000006</v>
+        <v>187.66770176000003</v>
       </c>
       <c r="K454" s="8">
-        <v>7935.1253999999999</v>
+        <v>1526.5950515200002</v>
       </c>
       <c r="L454" s="8">
-        <v>12273.317999999999</v>
+        <v>2354.7592499200005</v>
       </c>
       <c r="M454" s="9">
-        <v>9587.7702000000008</v>
+        <v>1356.3406677333335</v>
       </c>
       <c r="N454" s="6" t="s">
         <v>528</v>
@@ -29314,18 +29314,18 @@
         <v>300</v>
       </c>
       <c r="T454" s="11">
-        <v>708.72093023255809</v>
+        <v>544.19642857142856</v>
       </c>
     </row>
     <row r="455" spans="1:20">
       <c r="A455" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>12</v>
@@ -29334,28 +29334,28 @@
         <v>285</v>
       </c>
       <c r="F455" s="4">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G455" s="5">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="H455" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I455" s="7">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="J455" s="8">
-        <v>187.66770176000003</v>
+        <v>1.56</v>
       </c>
       <c r="K455" s="8">
-        <v>1526.5950515200002</v>
+        <v>0</v>
       </c>
       <c r="L455" s="8">
-        <v>2354.7592499200005</v>
+        <v>0</v>
       </c>
       <c r="M455" s="9">
-        <v>1356.3406677333335</v>
+        <v>0.52</v>
       </c>
       <c r="N455" s="6" t="s">
         <v>528</v>
@@ -29373,21 +29373,21 @@
         <v>100</v>
       </c>
       <c r="S455" s="10">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="T455" s="11">
-        <v>544.19642857142856</v>
+        <v>2101.7241379310344</v>
       </c>
     </row>
     <row r="456" spans="1:20">
       <c r="A456" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>12</v>
@@ -29399,25 +29399,25 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G456" s="5">
-        <v>58</v>
+        <v>365.5</v>
       </c>
       <c r="H456" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I456" s="7">
-        <v>0</v>
+        <v>-2925</v>
       </c>
       <c r="J456" s="8">
-        <v>1.56</v>
+        <v>3215.7392</v>
       </c>
       <c r="K456" s="8">
-        <v>0</v>
+        <v>26158.6384</v>
       </c>
       <c r="L456" s="8">
-        <v>0</v>
+        <v>40349.466399999998</v>
       </c>
       <c r="M456" s="9">
-        <v>0.52</v>
+        <v>23241.281333333332</v>
       </c>
       <c r="N456" s="6" t="s">
         <v>528</v>
@@ -29432,24 +29432,24 @@
         <v>548</v>
       </c>
       <c r="R456" s="10">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S456" s="10">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="T456" s="11">
-        <v>2101.7241379310344</v>
+        <v>1000.547195622435</v>
       </c>
     </row>
     <row r="457" spans="1:20">
       <c r="A457" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>12</v>
@@ -29458,28 +29458,28 @@
         <v>285</v>
       </c>
       <c r="F457" s="4">
-        <v>2.2999999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="G457" s="5">
-        <v>365.5</v>
+        <v>125.5</v>
       </c>
       <c r="H457" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I457" s="7">
-        <v>-2925</v>
+        <v>0</v>
       </c>
       <c r="J457" s="8">
-        <v>3215.7392</v>
+        <v>0</v>
       </c>
       <c r="K457" s="8">
-        <v>26158.6384</v>
+        <v>0</v>
       </c>
       <c r="L457" s="8">
-        <v>40349.466399999998</v>
+        <v>0</v>
       </c>
       <c r="M457" s="9">
-        <v>23241.281333333332</v>
+        <v>0</v>
       </c>
       <c r="N457" s="6" t="s">
         <v>528</v>
@@ -29494,36 +29494,36 @@
         <v>548</v>
       </c>
       <c r="R457" s="10">
+        <v>100</v>
+      </c>
+      <c r="S457" s="10">
         <v>300</v>
       </c>
-      <c r="S457" s="10">
-        <v>700</v>
-      </c>
       <c r="T457" s="11">
-        <v>1000.547195622435</v>
+        <v>971.31474103585663</v>
       </c>
     </row>
     <row r="458" spans="1:20">
       <c r="A458" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="E458" s="4" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="F458" s="4">
-        <v>3.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G458" s="5">
-        <v>125.5</v>
+        <v>88</v>
       </c>
       <c r="H458" s="4" t="s">
         <v>14</v>
@@ -29532,16 +29532,16 @@
         <v>0</v>
       </c>
       <c r="J458" s="8">
-        <v>0</v>
+        <v>57.6</v>
       </c>
       <c r="K458" s="8">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L458" s="8">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="M458" s="9">
-        <v>0</v>
+        <v>62.933333333333337</v>
       </c>
       <c r="N458" s="6" t="s">
         <v>528</v>
@@ -29559,21 +29559,21 @@
         <v>100</v>
       </c>
       <c r="S458" s="10">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="T458" s="11">
-        <v>971.31474103585663</v>
+        <v>1385.2272727272727</v>
       </c>
     </row>
     <row r="459" spans="1:20">
       <c r="A459" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>223</v>
@@ -29585,25 +29585,25 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G459" s="5">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H459" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I459" s="7">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J459" s="8">
-        <v>57.6</v>
+        <v>261</v>
       </c>
       <c r="K459" s="8">
-        <v>54.4</v>
+        <v>246.49999999999997</v>
       </c>
       <c r="L459" s="8">
-        <v>76.8</v>
+        <v>348</v>
       </c>
       <c r="M459" s="9">
-        <v>62.933333333333337</v>
+        <v>285.16666666666669</v>
       </c>
       <c r="N459" s="6" t="s">
         <v>528</v>
@@ -29624,18 +29624,18 @@
         <v>250</v>
       </c>
       <c r="T459" s="11">
-        <v>1385.2272727272727</v>
+        <v>1310.752688172043</v>
       </c>
     </row>
     <row r="460" spans="1:20">
       <c r="A460" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>223</v>
@@ -29647,25 +29647,25 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G460" s="5">
-        <v>93</v>
+        <v>56.5</v>
       </c>
       <c r="H460" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I460" s="7">
-        <v>-300</v>
+        <v>-168</v>
       </c>
       <c r="J460" s="8">
-        <v>261</v>
+        <v>69.591733649999995</v>
       </c>
       <c r="K460" s="8">
-        <v>246.49999999999997</v>
+        <v>566.09845604999998</v>
       </c>
       <c r="L460" s="8">
-        <v>348</v>
+        <v>873.20181892499988</v>
       </c>
       <c r="M460" s="9">
-        <v>285.16666666666669</v>
+        <v>502.96400287500001</v>
       </c>
       <c r="N460" s="6" t="s">
         <v>528</v>
@@ -29686,48 +29686,48 @@
         <v>250</v>
       </c>
       <c r="T460" s="11">
-        <v>1310.752688172043</v>
+        <v>2157.5221238938052</v>
       </c>
     </row>
     <row r="461" spans="1:20">
       <c r="A461" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="F461" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="G461" s="5">
-        <v>56.5</v>
+        <v>72</v>
       </c>
       <c r="H461" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I461" s="7">
-        <v>-168</v>
+        <v>125</v>
       </c>
       <c r="J461" s="8">
-        <v>69.591733649999995</v>
+        <v>71.974828799999983</v>
       </c>
       <c r="K461" s="8">
-        <v>566.09845604999998</v>
+        <v>585.48389759999986</v>
       </c>
       <c r="L461" s="8">
-        <v>873.20181892499988</v>
+        <v>903.10368959999983</v>
       </c>
       <c r="M461" s="9">
-        <v>502.96400287500001</v>
+        <v>520.18747199999996</v>
       </c>
       <c r="N461" s="6" t="s">
         <v>528</v>
@@ -29748,48 +29748,48 @@
         <v>250</v>
       </c>
       <c r="T461" s="11">
-        <v>2157.5221238938052</v>
+        <v>1693.0555555555557</v>
       </c>
     </row>
     <row r="462" spans="1:20">
       <c r="A462" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>292</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>437</v>
+        <v>293</v>
       </c>
       <c r="F462" s="4">
         <v>1.4</v>
       </c>
       <c r="G462" s="5">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H462" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I462" s="7">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="J462" s="8">
-        <v>71.974828799999983</v>
+        <v>0</v>
       </c>
       <c r="K462" s="8">
-        <v>585.48389759999986</v>
+        <v>0</v>
       </c>
       <c r="L462" s="8">
-        <v>903.10368959999983</v>
+        <v>0</v>
       </c>
       <c r="M462" s="9">
-        <v>520.18747199999996</v>
+        <v>0</v>
       </c>
       <c r="N462" s="6" t="s">
         <v>528</v>
@@ -29810,18 +29810,18 @@
         <v>250</v>
       </c>
       <c r="T462" s="11">
-        <v>1693.0555555555557</v>
+        <v>1486.5853658536585</v>
       </c>
     </row>
     <row r="463" spans="1:20">
       <c r="A463" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>292</v>
@@ -29833,7 +29833,7 @@
         <v>1.4</v>
       </c>
       <c r="G463" s="5">
-        <v>82</v>
+        <v>93.5</v>
       </c>
       <c r="H463" s="4" t="s">
         <v>14</v>
@@ -29842,16 +29842,16 @@
         <v>0</v>
       </c>
       <c r="J463" s="8">
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="K463" s="8">
-        <v>0</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="L463" s="8">
-        <v>0</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="M463" s="9">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="N463" s="6" t="s">
         <v>528</v>
@@ -29872,48 +29872,48 @@
         <v>250</v>
       </c>
       <c r="T463" s="11">
-        <v>1486.5853658536585</v>
+        <v>1303.7433155080214</v>
       </c>
     </row>
     <row r="464" spans="1:20">
       <c r="A464" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>292</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>293</v>
+        <v>437</v>
       </c>
       <c r="F464" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G464" s="5">
-        <v>93.5</v>
+        <v>98</v>
       </c>
       <c r="H464" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I464" s="7">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="J464" s="8">
-        <v>32.4</v>
+        <v>312.02808000000005</v>
       </c>
       <c r="K464" s="8">
-        <v>30.599999999999998</v>
+        <v>189.13702080000004</v>
       </c>
       <c r="L464" s="8">
-        <v>43.199999999999996</v>
+        <v>319.22872800000005</v>
       </c>
       <c r="M464" s="9">
-        <v>35.4</v>
+        <v>273.46460960000007</v>
       </c>
       <c r="N464" s="6" t="s">
         <v>528</v>
@@ -29931,21 +29931,21 @@
         <v>100</v>
       </c>
       <c r="S464" s="10">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T464" s="11">
-        <v>1303.7433155080214</v>
+        <v>1243.8775510204082</v>
       </c>
     </row>
     <row r="465" spans="1:20">
       <c r="A465" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>292</v>
@@ -29957,25 +29957,25 @@
         <v>1.6</v>
       </c>
       <c r="G465" s="5">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H465" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I465" s="7">
-        <v>-150</v>
+        <v>-260</v>
       </c>
       <c r="J465" s="8">
-        <v>312.02808000000005</v>
+        <v>230.83710000000005</v>
       </c>
       <c r="K465" s="8">
-        <v>189.13702080000004</v>
+        <v>139.92279600000003</v>
       </c>
       <c r="L465" s="8">
-        <v>319.22872800000005</v>
+        <v>236.16411000000005</v>
       </c>
       <c r="M465" s="9">
-        <v>273.46460960000007</v>
+        <v>202.30800200000007</v>
       </c>
       <c r="N465" s="6" t="s">
         <v>528</v>
@@ -29996,48 +29996,48 @@
         <v>300</v>
       </c>
       <c r="T465" s="11">
-        <v>1243.8775510204082</v>
+        <v>1401.1494252873563</v>
       </c>
     </row>
     <row r="466" spans="1:20">
       <c r="A466" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>292</v>
       </c>
       <c r="E466" s="4" t="s">
-        <v>437</v>
+        <v>293</v>
       </c>
       <c r="F466" s="4">
         <v>1.6</v>
       </c>
       <c r="G466" s="5">
-        <v>87</v>
+        <v>131.5</v>
       </c>
       <c r="H466" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I466" s="7">
-        <v>-260</v>
+        <v>0</v>
       </c>
       <c r="J466" s="8">
-        <v>230.83710000000005</v>
+        <v>81</v>
       </c>
       <c r="K466" s="8">
-        <v>139.92279600000003</v>
+        <v>76.5</v>
       </c>
       <c r="L466" s="8">
-        <v>236.16411000000005</v>
+        <v>108</v>
       </c>
       <c r="M466" s="9">
-        <v>202.30800200000007</v>
+        <v>88.5</v>
       </c>
       <c r="N466" s="6" t="s">
         <v>528</v>
@@ -30058,18 +30058,18 @@
         <v>300</v>
       </c>
       <c r="T466" s="11">
-        <v>1401.1494252873563</v>
+        <v>926.99619771863115</v>
       </c>
     </row>
     <row r="467" spans="1:20">
       <c r="A467" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>292</v>
@@ -30078,28 +30078,28 @@
         <v>293</v>
       </c>
       <c r="F467" s="4">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G467" s="5">
-        <v>131.5</v>
+        <v>121</v>
       </c>
       <c r="H467" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I467" s="7">
-        <v>0</v>
+        <v>-358</v>
       </c>
       <c r="J467" s="8">
-        <v>81</v>
+        <v>392.26050435000008</v>
       </c>
       <c r="K467" s="8">
-        <v>76.5</v>
+        <v>237.77021340600001</v>
       </c>
       <c r="L467" s="8">
-        <v>108</v>
+        <v>401.31266983500007</v>
       </c>
       <c r="M467" s="9">
-        <v>88.5</v>
+        <v>343.78112919699998</v>
       </c>
       <c r="N467" s="6" t="s">
         <v>528</v>
@@ -30120,48 +30120,48 @@
         <v>300</v>
       </c>
       <c r="T467" s="11">
-        <v>926.99619771863115</v>
+        <v>1007.4380165289256</v>
       </c>
     </row>
     <row r="468" spans="1:20">
       <c r="A468" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="E468" s="4" t="s">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="F468" s="4">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G468" s="5">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H468" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I468" s="7">
-        <v>-358</v>
+        <v>0</v>
       </c>
       <c r="J468" s="8">
-        <v>392.26050435000008</v>
+        <v>109.33917637499999</v>
       </c>
       <c r="K468" s="8">
-        <v>237.77021340600001</v>
+        <v>66.276362294999998</v>
       </c>
       <c r="L468" s="8">
-        <v>401.31266983500007</v>
+        <v>111.86238813750001</v>
       </c>
       <c r="M468" s="9">
-        <v>343.78112919699998</v>
+        <v>95.825975602500009</v>
       </c>
       <c r="N468" s="6" t="s">
         <v>528</v>
@@ -30182,18 +30182,18 @@
         <v>300</v>
       </c>
       <c r="T468" s="11">
-        <v>1007.4380165289256</v>
+        <v>1098.1981981981983</v>
       </c>
     </row>
     <row r="469" spans="1:20">
       <c r="A469" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>223</v>
@@ -30205,25 +30205,25 @@
         <v>2.6</v>
       </c>
       <c r="G469" s="5">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="H469" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I469" s="7">
-        <v>0</v>
+        <v>-236</v>
       </c>
       <c r="J469" s="8">
-        <v>109.33917637499999</v>
+        <v>235.67182079999998</v>
       </c>
       <c r="K469" s="8">
-        <v>66.276362294999998</v>
+        <v>379.74748031999997</v>
       </c>
       <c r="L469" s="8">
-        <v>111.86238813750001</v>
+        <v>379.74748031999997</v>
       </c>
       <c r="M469" s="9">
-        <v>95.825975602500009</v>
+        <v>331.72226047999999</v>
       </c>
       <c r="N469" s="6" t="s">
         <v>528</v>
@@ -30244,18 +30244,18 @@
         <v>300</v>
       </c>
       <c r="T469" s="11">
-        <v>1098.1981981981983</v>
+        <v>761.875</v>
       </c>
     </row>
     <row r="470" spans="1:20">
       <c r="A470" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>249</v>
+        <v>445</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>223</v>
@@ -30267,25 +30267,25 @@
         <v>2.6</v>
       </c>
       <c r="G470" s="5">
-        <v>160</v>
+        <v>180.6</v>
       </c>
       <c r="H470" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I470" s="7">
-        <v>-236</v>
+        <v>-272</v>
       </c>
       <c r="J470" s="8">
-        <v>235.67182079999998</v>
+        <v>266.01456772799997</v>
       </c>
       <c r="K470" s="8">
-        <v>379.74748031999997</v>
+        <v>428.63996841119996</v>
       </c>
       <c r="L470" s="8">
-        <v>379.74748031999997</v>
+        <v>428.63996841119996</v>
       </c>
       <c r="M470" s="9">
-        <v>331.72226047999999</v>
+        <v>374.43150151679998</v>
       </c>
       <c r="N470" s="6" t="s">
         <v>528</v>
@@ -30306,18 +30306,18 @@
         <v>300</v>
       </c>
       <c r="T470" s="11">
-        <v>761.875</v>
+        <v>674.97231450719823</v>
       </c>
     </row>
     <row r="471" spans="1:20">
       <c r="A471" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D471" s="4" t="s">
         <v>223</v>
@@ -30326,28 +30326,28 @@
         <v>13</v>
       </c>
       <c r="F471" s="4">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G471" s="5">
-        <v>180.6</v>
+        <v>134</v>
       </c>
       <c r="H471" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I471" s="7">
-        <v>-272</v>
+        <v>-132</v>
       </c>
       <c r="J471" s="8">
-        <v>266.01456772799997</v>
+        <v>390.58730039999983</v>
       </c>
       <c r="K471" s="8">
-        <v>428.63996841119996</v>
+        <v>629.36902115999976</v>
       </c>
       <c r="L471" s="8">
-        <v>428.63996841119996</v>
+        <v>629.36902115999976</v>
       </c>
       <c r="M471" s="9">
-        <v>374.43150151679998</v>
+        <v>549.77511423999977</v>
       </c>
       <c r="N471" s="6" t="s">
         <v>528</v>
@@ -30368,48 +30368,48 @@
         <v>300</v>
       </c>
       <c r="T471" s="11">
-        <v>674.97231450719823</v>
+        <v>909.70149253731347</v>
       </c>
     </row>
     <row r="472" spans="1:20">
       <c r="A472" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="F472" s="4">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="G472" s="5">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H472" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I472" s="7">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="J472" s="8">
-        <v>390.58730039999983</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K472" s="8">
-        <v>629.36902115999976</v>
+        <v>0</v>
       </c>
       <c r="L472" s="8">
-        <v>629.36902115999976</v>
+        <v>0</v>
       </c>
       <c r="M472" s="9">
-        <v>549.77511423999977</v>
+        <v>0.69</v>
       </c>
       <c r="N472" s="6" t="s">
         <v>528</v>
@@ -30430,18 +30430,18 @@
         <v>300</v>
       </c>
       <c r="T472" s="11">
-        <v>909.70149253731347</v>
+        <v>883.33333333333337</v>
       </c>
     </row>
     <row r="473" spans="1:20">
       <c r="A473" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>12</v>
@@ -30453,7 +30453,7 @@
         <v>1.6</v>
       </c>
       <c r="G473" s="5">
-        <v>138</v>
+        <v>153.5</v>
       </c>
       <c r="H473" s="4" t="s">
         <v>14</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="J473" s="8">
-        <v>2.0699999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="K473" s="8">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="M473" s="9">
-        <v>0.69</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N473" s="6" t="s">
         <v>528</v>
@@ -30492,18 +30492,18 @@
         <v>300</v>
       </c>
       <c r="T473" s="11">
-        <v>883.33333333333337</v>
+        <v>794.13680781758956</v>
       </c>
     </row>
     <row r="474" spans="1:20">
       <c r="A474" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>12</v>
@@ -30512,31 +30512,31 @@
         <v>285</v>
       </c>
       <c r="F474" s="4">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="G474" s="5">
-        <v>153.5</v>
+        <v>96.5</v>
       </c>
       <c r="H474" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I474" s="7">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="J474" s="8">
-        <v>2.5</v>
+        <v>452.01334944000001</v>
       </c>
       <c r="K474" s="8">
-        <v>0</v>
+        <v>3676.9318108800003</v>
       </c>
       <c r="L474" s="8">
-        <v>0</v>
+        <v>5671.63452048</v>
       </c>
       <c r="M474" s="9">
-        <v>0.83333333333333337</v>
+        <v>3266.8598936000003</v>
       </c>
       <c r="N474" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O474" s="6" t="s">
         <v>529</v>
@@ -30554,57 +30554,57 @@
         <v>300</v>
       </c>
       <c r="T474" s="11">
-        <v>794.13680781758956</v>
+        <v>1263.2124352331607</v>
       </c>
     </row>
     <row r="475" spans="1:20">
       <c r="A475" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="E475" s="4" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="F475" s="4">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="G475" s="5">
-        <v>96.5</v>
+        <v>143</v>
       </c>
       <c r="H475" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I475" s="7">
-        <v>-64</v>
+        <v>-3500</v>
       </c>
       <c r="J475" s="8">
-        <v>452.01334944000001</v>
+        <v>11005</v>
       </c>
       <c r="K475" s="8">
-        <v>3676.9318108800003</v>
+        <v>6415</v>
       </c>
       <c r="L475" s="8">
-        <v>5671.63452048</v>
+        <v>5035</v>
       </c>
       <c r="M475" s="9">
-        <v>3266.8598936000003</v>
+        <v>7485</v>
       </c>
       <c r="N475" s="6" t="s">
         <v>530</v>
       </c>
       <c r="O475" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P475" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q475" s="6" t="s">
         <v>548</v>
@@ -30613,21 +30613,21 @@
         <v>100</v>
       </c>
       <c r="S475" s="10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T475" s="11">
-        <v>1263.2124352331607</v>
+        <v>2557.3426573426573</v>
       </c>
     </row>
     <row r="476" spans="1:20">
       <c r="A476" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>542</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>203</v>
@@ -30639,25 +30639,25 @@
         <v>1.2</v>
       </c>
       <c r="G476" s="5">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H476" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I476" s="7">
-        <v>-3500</v>
+        <v>-212</v>
       </c>
       <c r="J476" s="8">
-        <v>11005</v>
+        <v>3720</v>
       </c>
       <c r="K476" s="8">
-        <v>6415</v>
+        <v>2175</v>
       </c>
       <c r="L476" s="8">
-        <v>5035</v>
+        <v>1710</v>
       </c>
       <c r="M476" s="9">
-        <v>7485</v>
+        <v>2535</v>
       </c>
       <c r="N476" s="6" t="s">
         <v>530</v>
@@ -30678,18 +30678,18 @@
         <v>500</v>
       </c>
       <c r="T476" s="11">
-        <v>2557.3426573426573</v>
+        <v>3236.283185840708</v>
       </c>
     </row>
     <row r="477" spans="1:20">
       <c r="A477" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>542</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>203</v>
@@ -30701,25 +30701,25 @@
         <v>1.2</v>
       </c>
       <c r="G477" s="5">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H477" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I477" s="7">
-        <v>-212</v>
+        <v>-1200</v>
       </c>
       <c r="J477" s="8">
-        <v>3720</v>
+        <v>1280</v>
       </c>
       <c r="K477" s="8">
-        <v>2175</v>
+        <v>980</v>
       </c>
       <c r="L477" s="8">
-        <v>1710</v>
+        <v>830</v>
       </c>
       <c r="M477" s="9">
-        <v>2535</v>
+        <v>1030</v>
       </c>
       <c r="N477" s="6" t="s">
         <v>530</v>
@@ -30740,18 +30740,18 @@
         <v>500</v>
       </c>
       <c r="T477" s="11">
-        <v>3236.283185840708</v>
+        <v>2925.6</v>
       </c>
     </row>
     <row r="478" spans="1:20">
       <c r="A478" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>542</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>203</v>
@@ -30760,28 +30760,28 @@
         <v>204</v>
       </c>
       <c r="F478" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G478" s="5">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="H478" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I478" s="7">
-        <v>-1200</v>
+        <v>409</v>
       </c>
       <c r="J478" s="8">
-        <v>1280</v>
+        <v>290</v>
       </c>
       <c r="K478" s="8">
-        <v>980</v>
+        <v>210</v>
       </c>
       <c r="L478" s="8">
-        <v>830</v>
+        <v>180</v>
       </c>
       <c r="M478" s="9">
-        <v>1030</v>
+        <v>226.66666666666666</v>
       </c>
       <c r="N478" s="6" t="s">
         <v>530</v>
@@ -30802,18 +30802,18 @@
         <v>500</v>
       </c>
       <c r="T478" s="11">
-        <v>2925.6</v>
+        <v>1618.141592920354</v>
       </c>
     </row>
     <row r="479" spans="1:20">
       <c r="A479" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>542</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>453</v>
+        <v>218</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>203</v>
@@ -30822,37 +30822,37 @@
         <v>204</v>
       </c>
       <c r="F479" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G479" s="5">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="H479" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I479" s="7">
-        <v>409</v>
+        <v>-3500</v>
       </c>
       <c r="J479" s="8">
-        <v>290</v>
+        <v>11205</v>
       </c>
       <c r="K479" s="8">
-        <v>210</v>
+        <v>6535</v>
       </c>
       <c r="L479" s="8">
-        <v>180</v>
+        <v>5130</v>
       </c>
       <c r="M479" s="9">
-        <v>226.66666666666666</v>
+        <v>7623.333333333333</v>
       </c>
       <c r="N479" s="6" t="s">
         <v>530</v>
       </c>
       <c r="O479" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P479" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q479" s="6" t="s">
         <v>548</v>
@@ -30864,18 +30864,18 @@
         <v>500</v>
       </c>
       <c r="T479" s="11">
-        <v>1618.141592920354</v>
+        <v>2314.5569620253164</v>
       </c>
     </row>
     <row r="480" spans="1:20">
       <c r="A480" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>542</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>203</v>
@@ -30887,25 +30887,25 @@
         <v>2</v>
       </c>
       <c r="G480" s="5">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="H480" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I480" s="7">
-        <v>-3500</v>
+        <v>172</v>
       </c>
       <c r="J480" s="8">
-        <v>11205</v>
+        <v>2435</v>
       </c>
       <c r="K480" s="8">
-        <v>6535</v>
+        <v>1340</v>
       </c>
       <c r="L480" s="8">
-        <v>5130</v>
+        <v>1004.9999999999999</v>
       </c>
       <c r="M480" s="9">
-        <v>7623.333333333333</v>
+        <v>1593.3333333333333</v>
       </c>
       <c r="N480" s="6" t="s">
         <v>530</v>
@@ -30926,51 +30926,51 @@
         <v>500</v>
       </c>
       <c r="T480" s="11">
-        <v>2314.5569620253164</v>
+        <v>3265.1785714285716</v>
       </c>
     </row>
     <row r="481" spans="1:20">
       <c r="A481" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>219</v>
+        <v>454</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="F481" s="4">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G481" s="5">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="H481" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I481" s="7">
-        <v>172</v>
+        <v>-14000</v>
       </c>
       <c r="J481" s="8">
-        <v>2435</v>
+        <v>27936</v>
       </c>
       <c r="K481" s="8">
-        <v>1340</v>
+        <v>36316.799999999996</v>
       </c>
       <c r="L481" s="8">
-        <v>1004.9999999999999</v>
+        <v>36316.799999999996</v>
       </c>
       <c r="M481" s="9">
-        <v>1593.3333333333333</v>
+        <v>33523.199999999997</v>
       </c>
       <c r="N481" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O481" s="6" t="s">
         <v>529</v>
@@ -30982,60 +30982,60 @@
         <v>548</v>
       </c>
       <c r="R481" s="10">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S481" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T481" s="11">
-        <v>3265.1785714285716</v>
+        <v>928.17258883248735</v>
       </c>
     </row>
     <row r="482" spans="1:20">
       <c r="A482" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F482" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="G482" s="5">
-        <v>394</v>
+        <v>73.5</v>
       </c>
       <c r="H482" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I482" s="7">
-        <v>-14000</v>
+        <v>0</v>
       </c>
       <c r="J482" s="8">
-        <v>27936</v>
+        <v>218.8145633333333</v>
       </c>
       <c r="K482" s="8">
-        <v>36316.799999999996</v>
+        <v>593.92524333333324</v>
       </c>
       <c r="L482" s="8">
-        <v>36316.799999999996</v>
+        <v>593.92524333333324</v>
       </c>
       <c r="M482" s="9">
-        <v>33523.199999999997</v>
+        <v>468.88834999999989</v>
       </c>
       <c r="N482" s="6" t="s">
         <v>528</v>
       </c>
       <c r="O482" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P482" s="6" t="s">
         <v>529</v>
@@ -31044,24 +31044,24 @@
         <v>548</v>
       </c>
       <c r="R482" s="10">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="S482" s="10">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="T482" s="11">
-        <v>928.17258883248735</v>
+        <v>829.25170068027217</v>
       </c>
     </row>
     <row r="483" spans="1:20">
       <c r="A483" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D483" s="4" t="s">
         <v>292</v>
@@ -31070,28 +31070,28 @@
         <v>293</v>
       </c>
       <c r="F483" s="4">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="G483" s="5">
-        <v>73.5</v>
+        <v>30</v>
       </c>
       <c r="H483" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I483" s="7">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J483" s="8">
-        <v>218.8145633333333</v>
+        <v>325.55520000000001</v>
       </c>
       <c r="K483" s="8">
-        <v>593.92524333333324</v>
+        <v>813.88800000000003</v>
       </c>
       <c r="L483" s="8">
-        <v>593.92524333333324</v>
+        <v>813.88800000000003</v>
       </c>
       <c r="M483" s="9">
-        <v>468.88834999999989</v>
+        <v>651.11040000000003</v>
       </c>
       <c r="N483" s="6" t="s">
         <v>528</v>
@@ -31109,57 +31109,57 @@
         <v>50</v>
       </c>
       <c r="S483" s="10">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="T483" s="11">
-        <v>829.25170068027217</v>
+        <v>2031.6666666666667</v>
       </c>
     </row>
     <row r="484" spans="1:20">
       <c r="A484" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="F484" s="4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G484" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H484" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I484" s="7">
-        <v>-400</v>
+        <v>-1600</v>
       </c>
       <c r="J484" s="8">
-        <v>325.55520000000001</v>
+        <v>2188.2042000000001</v>
       </c>
       <c r="K484" s="8">
-        <v>813.88800000000003</v>
+        <v>4220.1081000000004</v>
       </c>
       <c r="L484" s="8">
-        <v>813.88800000000003</v>
+        <v>4220.1081000000004</v>
       </c>
       <c r="M484" s="9">
-        <v>651.11040000000003</v>
+        <v>3542.8068000000003</v>
       </c>
       <c r="N484" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O484" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P484" s="6" t="s">
         <v>529</v>
@@ -31168,60 +31168,60 @@
         <v>548</v>
       </c>
       <c r="R484" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S484" s="10">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="T484" s="11">
-        <v>2031.6666666666667</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="485" spans="1:20">
       <c r="A485" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E485" s="4" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="F485" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G485" s="5">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="H485" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I485" s="7">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="J485" s="8">
-        <v>2188.2042000000001</v>
+        <v>2891.4513198374998</v>
       </c>
       <c r="K485" s="8">
-        <v>4220.1081000000004</v>
+        <v>3177.2028455999998</v>
       </c>
       <c r="L485" s="8">
-        <v>4220.1081000000004</v>
+        <v>3503.7931701500002</v>
       </c>
       <c r="M485" s="9">
-        <v>3542.8068000000003</v>
+        <v>3190.8157785291664</v>
       </c>
       <c r="N485" s="6" t="s">
         <v>530</v>
       </c>
       <c r="O485" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P485" s="6" t="s">
         <v>529</v>
@@ -31230,24 +31230,24 @@
         <v>548</v>
       </c>
       <c r="R485" s="10">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="S485" s="10">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="T485" s="11">
-        <v>1219</v>
+        <v>3006.2556390977443</v>
       </c>
     </row>
     <row r="486" spans="1:20">
       <c r="A486" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D486" s="4" t="s">
         <v>223</v>
@@ -31259,25 +31259,25 @@
         <v>2</v>
       </c>
       <c r="G486" s="5">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="H486" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I486" s="7">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="J486" s="8">
-        <v>2891.4513198374998</v>
+        <v>1102.15471875</v>
       </c>
       <c r="K486" s="8">
-        <v>3177.2028455999998</v>
+        <v>1210.764375</v>
       </c>
       <c r="L486" s="8">
-        <v>3503.7931701500002</v>
+        <v>1335.16725</v>
       </c>
       <c r="M486" s="9">
-        <v>3190.8157785291664</v>
+        <v>1216.0287812499998</v>
       </c>
       <c r="N486" s="6" t="s">
         <v>530</v>
@@ -31292,24 +31292,24 @@
         <v>548</v>
       </c>
       <c r="R486" s="10">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="S486" s="10">
         <v>950</v>
       </c>
       <c r="T486" s="11">
-        <v>3006.2556390977443</v>
+        <v>3006.8666666666668</v>
       </c>
     </row>
     <row r="487" spans="1:20">
       <c r="A487" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>223</v>
@@ -31321,25 +31321,25 @@
         <v>2</v>
       </c>
       <c r="G487" s="5">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="H487" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I487" s="7">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="J487" s="8">
-        <v>1102.15471875</v>
+        <v>4914.9117881250004</v>
       </c>
       <c r="K487" s="8">
-        <v>1210.764375</v>
+        <v>5047.428717499999</v>
       </c>
       <c r="L487" s="8">
-        <v>1335.16725</v>
+        <v>5510.7470999999996</v>
       </c>
       <c r="M487" s="9">
-        <v>1216.0287812499998</v>
+        <v>5157.6958685416657</v>
       </c>
       <c r="N487" s="6" t="s">
         <v>530</v>
@@ -31354,24 +31354,24 @@
         <v>548</v>
       </c>
       <c r="R487" s="10">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="S487" s="10">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="T487" s="11">
-        <v>3006.8666666666668</v>
+        <v>2999.8</v>
       </c>
     </row>
     <row r="488" spans="1:20">
       <c r="A488" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>223</v>
@@ -31383,25 +31383,25 @@
         <v>2</v>
       </c>
       <c r="G488" s="5">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="H488" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I488" s="7">
-        <v>-2400</v>
+        <v>798</v>
       </c>
       <c r="J488" s="8">
-        <v>4914.9117881250004</v>
+        <v>2525.7464293749999</v>
       </c>
       <c r="K488" s="8">
-        <v>5047.428717499999</v>
+        <v>2526.9174531250001</v>
       </c>
       <c r="L488" s="8">
-        <v>5510.7470999999996</v>
+        <v>2998.16777</v>
       </c>
       <c r="M488" s="9">
-        <v>5157.6958685416657</v>
+        <v>2683.6105508333335</v>
       </c>
       <c r="N488" s="6" t="s">
         <v>530</v>
@@ -31416,24 +31416,24 @@
         <v>548</v>
       </c>
       <c r="R488" s="10">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="S488" s="10">
-        <v>850</v>
+        <v>628</v>
       </c>
       <c r="T488" s="11">
-        <v>2999.8</v>
+        <v>2997.3058823529414</v>
       </c>
     </row>
     <row r="489" spans="1:20">
       <c r="A489" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D489" s="4" t="s">
         <v>223</v>
@@ -31445,25 +31445,25 @@
         <v>2</v>
       </c>
       <c r="G489" s="5">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="H489" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I489" s="7">
-        <v>798</v>
+        <v>138</v>
       </c>
       <c r="J489" s="8">
-        <v>2525.7464293749999</v>
+        <v>761.91279674999998</v>
       </c>
       <c r="K489" s="8">
-        <v>2526.9174531250001</v>
+        <v>836.2345949999999</v>
       </c>
       <c r="L489" s="8">
-        <v>2998.16777</v>
+        <v>923.49739299999987</v>
       </c>
       <c r="M489" s="9">
-        <v>2683.6105508333335</v>
+        <v>840.5482615833331</v>
       </c>
       <c r="N489" s="6" t="s">
         <v>530</v>
@@ -31478,24 +31478,24 @@
         <v>548</v>
       </c>
       <c r="R489" s="10">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="S489" s="10">
-        <v>628</v>
+        <v>950</v>
       </c>
       <c r="T489" s="11">
-        <v>2997.3058823529414</v>
+        <v>3006.3175675675675</v>
       </c>
     </row>
     <row r="490" spans="1:20">
       <c r="A490" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>223</v>
@@ -31507,25 +31507,25 @@
         <v>2</v>
       </c>
       <c r="G490" s="5">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H490" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I490" s="7">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J490" s="8">
-        <v>761.91279674999998</v>
+        <v>0</v>
       </c>
       <c r="K490" s="8">
-        <v>836.2345949999999</v>
+        <v>0</v>
       </c>
       <c r="L490" s="8">
-        <v>923.49739299999987</v>
+        <v>0</v>
       </c>
       <c r="M490" s="9">
-        <v>840.5482615833331</v>
+        <v>0</v>
       </c>
       <c r="N490" s="6" t="s">
         <v>530</v>
@@ -31540,24 +31540,24 @@
         <v>548</v>
       </c>
       <c r="R490" s="10">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="S490" s="10">
-        <v>950</v>
+        <v>1146</v>
       </c>
       <c r="T490" s="11">
-        <v>3006.3175675675675</v>
+        <v>3004.2451612903224</v>
       </c>
     </row>
     <row r="491" spans="1:20">
       <c r="A491" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D491" s="4" t="s">
         <v>223</v>
@@ -31569,7 +31569,7 @@
         <v>2</v>
       </c>
       <c r="G491" s="5">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="H491" s="4" t="s">
         <v>14</v>
@@ -31578,16 +31578,16 @@
         <v>0</v>
       </c>
       <c r="J491" s="8">
-        <v>0</v>
+        <v>93.149481599999987</v>
       </c>
       <c r="K491" s="8">
-        <v>0</v>
+        <v>83.084399999999988</v>
       </c>
       <c r="L491" s="8">
-        <v>0</v>
+        <v>76.010356799999983</v>
       </c>
       <c r="M491" s="9">
-        <v>0</v>
+        <v>84.081412799999981</v>
       </c>
       <c r="N491" s="6" t="s">
         <v>530</v>
@@ -31602,24 +31602,24 @@
         <v>548</v>
       </c>
       <c r="R491" s="10">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="S491" s="10">
-        <v>1146</v>
+        <v>828</v>
       </c>
       <c r="T491" s="11">
-        <v>3004.2451612903224</v>
+        <v>3003.9642857142858</v>
       </c>
     </row>
     <row r="492" spans="1:20">
       <c r="A492" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>223</v>
@@ -31631,25 +31631,25 @@
         <v>2</v>
       </c>
       <c r="G492" s="5">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="H492" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I492" s="7">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J492" s="8">
-        <v>93.149481599999987</v>
+        <v>1420.1630935999999</v>
       </c>
       <c r="K492" s="8">
-        <v>83.084399999999988</v>
+        <v>1560.1102559999999</v>
       </c>
       <c r="L492" s="8">
-        <v>76.010356799999983</v>
+        <v>1720.4075071999998</v>
       </c>
       <c r="M492" s="9">
-        <v>84.081412799999981</v>
+        <v>1566.8936189333333</v>
       </c>
       <c r="N492" s="6" t="s">
         <v>530</v>
@@ -31664,24 +31664,24 @@
         <v>548</v>
       </c>
       <c r="R492" s="10">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="S492" s="10">
-        <v>828</v>
+        <v>950</v>
       </c>
       <c r="T492" s="11">
-        <v>3003.9642857142858</v>
+        <v>3003.0993377483442</v>
       </c>
     </row>
     <row r="493" spans="1:20">
       <c r="A493" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>223</v>
@@ -31693,25 +31693,25 @@
         <v>2</v>
       </c>
       <c r="G493" s="5">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="H493" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I493" s="7">
-        <v>-900</v>
+        <v>636</v>
       </c>
       <c r="J493" s="8">
-        <v>1420.1630935999999</v>
+        <v>0</v>
       </c>
       <c r="K493" s="8">
-        <v>1560.1102559999999</v>
+        <v>0</v>
       </c>
       <c r="L493" s="8">
-        <v>1720.4075071999998</v>
+        <v>0</v>
       </c>
       <c r="M493" s="9">
-        <v>1566.8936189333333</v>
+        <v>0</v>
       </c>
       <c r="N493" s="6" t="s">
         <v>530</v>
@@ -31726,24 +31726,24 @@
         <v>548</v>
       </c>
       <c r="R493" s="10">
-        <v>372</v>
+        <v>752</v>
       </c>
       <c r="S493" s="10">
-        <v>950</v>
+        <v>2255</v>
       </c>
       <c r="T493" s="11">
-        <v>3003.0993377483442</v>
+        <v>3005.534426229508</v>
       </c>
     </row>
     <row r="494" spans="1:20">
       <c r="A494" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>223</v>
@@ -31752,60 +31752,60 @@
         <v>13</v>
       </c>
       <c r="F494" s="4">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G494" s="5">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="H494" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I494" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="J494" s="8">
-        <v>0</v>
+        <v>261.74360327374995</v>
       </c>
       <c r="K494" s="8">
-        <v>0</v>
+        <v>281.67809109374991</v>
       </c>
       <c r="L494" s="8">
-        <v>0</v>
+        <v>299.47379460374992</v>
       </c>
       <c r="M494" s="9">
-        <v>0</v>
+        <v>280.96516299041656</v>
       </c>
       <c r="N494" s="6" t="s">
         <v>530</v>
       </c>
       <c r="O494" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="P494" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="P494" s="6" t="s">
-        <v>529</v>
-      </c>
       <c r="Q494" s="6" t="s">
         <v>548</v>
       </c>
       <c r="R494" s="10">
-        <v>752</v>
+        <v>106</v>
       </c>
       <c r="S494" s="10">
-        <v>2255</v>
+        <v>318</v>
       </c>
       <c r="T494" s="11">
-        <v>3005.534426229508</v>
+        <v>3004.9767441860463</v>
       </c>
     </row>
     <row r="495" spans="1:20">
       <c r="A495" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>223</v>
@@ -31817,25 +31817,25 @@
         <v>2.6</v>
       </c>
       <c r="G495" s="5">
-        <v>43</v>
+        <v>52.3</v>
       </c>
       <c r="H495" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I495" s="7">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J495" s="8">
-        <v>261.74360327374995</v>
+        <v>277.82098786324991</v>
       </c>
       <c r="K495" s="8">
-        <v>281.67809109374991</v>
+        <v>388.05475903024984</v>
       </c>
       <c r="L495" s="8">
-        <v>299.47379460374992</v>
+        <v>407.62659329599984</v>
       </c>
       <c r="M495" s="9">
-        <v>280.96516299041656</v>
+        <v>357.83411339649984</v>
       </c>
       <c r="N495" s="6" t="s">
         <v>530</v>
@@ -31850,24 +31850,24 @@
         <v>548</v>
       </c>
       <c r="R495" s="10">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="S495" s="10">
-        <v>318</v>
+        <v>387</v>
       </c>
       <c r="T495" s="11">
-        <v>3004.9767441860463</v>
+        <v>3006.7112810707458</v>
       </c>
     </row>
     <row r="496" spans="1:20">
       <c r="A496" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>223</v>
@@ -31879,25 +31879,25 @@
         <v>2.6</v>
       </c>
       <c r="G496" s="5">
-        <v>52.3</v>
+        <v>78</v>
       </c>
       <c r="H496" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I496" s="7">
-        <v>-400</v>
+        <v>-895</v>
       </c>
       <c r="J496" s="8">
-        <v>277.82098786324991</v>
+        <v>1029.80728656</v>
       </c>
       <c r="K496" s="8">
-        <v>388.05475903024984</v>
+        <v>1089.92681928</v>
       </c>
       <c r="L496" s="8">
-        <v>407.62659329599984</v>
+        <v>983.23231968000005</v>
       </c>
       <c r="M496" s="9">
-        <v>357.83411339649984</v>
+        <v>1034.3221418399999</v>
       </c>
       <c r="N496" s="6" t="s">
         <v>530</v>
@@ -31912,24 +31912,24 @@
         <v>548</v>
       </c>
       <c r="R496" s="10">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="S496" s="10">
-        <v>387</v>
+        <v>577</v>
       </c>
       <c r="T496" s="11">
-        <v>3006.7112810707458</v>
+        <v>3000.6153846153848</v>
       </c>
     </row>
     <row r="497" spans="1:20">
       <c r="A497" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D497" s="4" t="s">
         <v>223</v>
@@ -31941,25 +31941,25 @@
         <v>2.6</v>
       </c>
       <c r="G497" s="5">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="H497" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I497" s="7">
-        <v>-895</v>
+        <v>0</v>
       </c>
       <c r="J497" s="8">
-        <v>1029.80728656</v>
+        <v>0</v>
       </c>
       <c r="K497" s="8">
-        <v>1089.92681928</v>
+        <v>0</v>
       </c>
       <c r="L497" s="8">
-        <v>983.23231968000005</v>
+        <v>0</v>
       </c>
       <c r="M497" s="9">
-        <v>1034.3221418399999</v>
+        <v>0</v>
       </c>
       <c r="N497" s="6" t="s">
         <v>530</v>
@@ -31974,24 +31974,24 @@
         <v>548</v>
       </c>
       <c r="R497" s="10">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="S497" s="10">
-        <v>577</v>
+        <v>873</v>
       </c>
       <c r="T497" s="11">
-        <v>3000.6153846153848</v>
+        <v>3006.1779661016949</v>
       </c>
     </row>
     <row r="498" spans="1:20">
       <c r="A498" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>470</v>
+        <v>243</v>
       </c>
       <c r="D498" s="4" t="s">
         <v>223</v>
@@ -32003,25 +32003,25 @@
         <v>2.6</v>
       </c>
       <c r="G498" s="5">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H498" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I498" s="7">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J498" s="8">
-        <v>0</v>
+        <v>670.98895499999992</v>
       </c>
       <c r="K498" s="8">
-        <v>0</v>
+        <v>810.50150999999994</v>
       </c>
       <c r="L498" s="8">
-        <v>0</v>
+        <v>876.93605999999988</v>
       </c>
       <c r="M498" s="9">
-        <v>0</v>
+        <v>786.14217499999995</v>
       </c>
       <c r="N498" s="6" t="s">
         <v>530</v>
@@ -32036,24 +32036,24 @@
         <v>548</v>
       </c>
       <c r="R498" s="10">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="S498" s="10">
-        <v>873</v>
+        <v>917</v>
       </c>
       <c r="T498" s="11">
-        <v>3006.1779661016949</v>
+        <v>3008.1774193548385</v>
       </c>
     </row>
     <row r="499" spans="1:20">
       <c r="A499" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>243</v>
+        <v>471</v>
       </c>
       <c r="D499" s="4" t="s">
         <v>223</v>
@@ -32065,57 +32065,57 @@
         <v>2.6</v>
       </c>
       <c r="G499" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H499" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I499" s="7">
-        <v>-900</v>
+        <v>-124</v>
       </c>
       <c r="J499" s="8">
-        <v>670.98895499999992</v>
+        <v>2836.2373812500005</v>
       </c>
       <c r="K499" s="8">
-        <v>810.50150999999994</v>
+        <v>2981.2057843750008</v>
       </c>
       <c r="L499" s="8">
-        <v>876.93605999999988</v>
+        <v>2939.0144875000005</v>
       </c>
       <c r="M499" s="9">
-        <v>786.14217499999995</v>
+        <v>2918.8192177083342</v>
       </c>
       <c r="N499" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O499" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P499" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q499" s="6" t="s">
         <v>548</v>
       </c>
       <c r="R499" s="10">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S499" s="10">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="T499" s="11">
-        <v>3008.1774193548385</v>
+        <v>3003.616</v>
       </c>
     </row>
     <row r="500" spans="1:20">
       <c r="A500" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>223</v>
@@ -32127,57 +32127,57 @@
         <v>2.6</v>
       </c>
       <c r="G500" s="5">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="H500" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I500" s="7">
-        <v>-124</v>
+        <v>0</v>
       </c>
       <c r="J500" s="8">
-        <v>2836.2373812500005</v>
+        <v>0</v>
       </c>
       <c r="K500" s="8">
-        <v>2981.2057843750008</v>
+        <v>0</v>
       </c>
       <c r="L500" s="8">
-        <v>2939.0144875000005</v>
+        <v>0</v>
       </c>
       <c r="M500" s="9">
-        <v>2918.8192177083342</v>
+        <v>0</v>
       </c>
       <c r="N500" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="O500" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="P500" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="O500" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="P500" s="6" t="s">
-        <v>529</v>
-      </c>
       <c r="Q500" s="6" t="s">
         <v>548</v>
       </c>
       <c r="R500" s="10">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="S500" s="10">
-        <v>924</v>
+        <v>950</v>
       </c>
       <c r="T500" s="11">
-        <v>3003.616</v>
+        <v>3003.6797385620916</v>
       </c>
     </row>
     <row r="501" spans="1:20">
       <c r="A501" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D501" s="4" t="s">
         <v>223</v>
@@ -32189,7 +32189,7 @@
         <v>2.6</v>
       </c>
       <c r="G501" s="5">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H501" s="4" t="s">
         <v>14</v>
@@ -32198,16 +32198,16 @@
         <v>0</v>
       </c>
       <c r="J501" s="8">
-        <v>0</v>
+        <v>3.2226573599999999</v>
       </c>
       <c r="K501" s="8">
         <v>0</v>
       </c>
       <c r="L501" s="8">
-        <v>0</v>
+        <v>6.2557466399999999</v>
       </c>
       <c r="M501" s="9">
-        <v>0</v>
+        <v>3.1594679999999999</v>
       </c>
       <c r="N501" s="6" t="s">
         <v>530</v>
@@ -32222,24 +32222,24 @@
         <v>548</v>
       </c>
       <c r="R501" s="10">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="S501" s="10">
-        <v>950</v>
+        <v>1272</v>
       </c>
       <c r="T501" s="11">
-        <v>3003.6797385620916</v>
+        <v>3004.9767441860463</v>
       </c>
     </row>
     <row r="502" spans="1:20">
       <c r="A502" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D502" s="4" t="s">
         <v>223</v>
@@ -32251,25 +32251,25 @@
         <v>2.6</v>
       </c>
       <c r="G502" s="5">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="H502" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I502" s="7">
-        <v>0</v>
+        <v>-735</v>
       </c>
       <c r="J502" s="8">
-        <v>3.2226573599999999</v>
+        <v>1967.66687</v>
       </c>
       <c r="K502" s="8">
-        <v>0</v>
+        <v>2227.5473999999999</v>
       </c>
       <c r="L502" s="8">
-        <v>6.2557466399999999</v>
+        <v>2368.6254020000001</v>
       </c>
       <c r="M502" s="9">
-        <v>3.1594679999999999</v>
+        <v>2187.9465573333332</v>
       </c>
       <c r="N502" s="6" t="s">
         <v>530</v>
@@ -32281,27 +32281,27 @@
         <v>531</v>
       </c>
       <c r="Q502" s="6" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="R502" s="10">
-        <v>424</v>
+        <v>955</v>
       </c>
       <c r="S502" s="10">
-        <v>1272</v>
+        <v>2011</v>
       </c>
       <c r="T502" s="11">
-        <v>3004.9767441860463</v>
+        <v>4279.9448529411766</v>
       </c>
     </row>
     <row r="503" spans="1:20">
       <c r="A503" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D503" s="4" t="s">
         <v>223</v>
@@ -32313,25 +32313,25 @@
         <v>2.6</v>
       </c>
       <c r="G503" s="5">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="H503" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I503" s="7">
-        <v>-735</v>
+        <v>-3808</v>
       </c>
       <c r="J503" s="8">
-        <v>1967.66687</v>
+        <v>3811.2277249999997</v>
       </c>
       <c r="K503" s="8">
-        <v>2227.5473999999999</v>
+        <v>4186.9736000000003</v>
       </c>
       <c r="L503" s="8">
-        <v>2368.6254020000001</v>
+        <v>4617.0595999999996</v>
       </c>
       <c r="M503" s="9">
-        <v>2187.9465573333332</v>
+        <v>4205.0869749999993</v>
       </c>
       <c r="N503" s="6" t="s">
         <v>530</v>
@@ -32343,27 +32343,27 @@
         <v>531</v>
       </c>
       <c r="Q503" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="R503" s="10">
-        <v>955</v>
+        <v>431</v>
       </c>
       <c r="S503" s="10">
-        <v>2011</v>
+        <v>1294</v>
       </c>
       <c r="T503" s="11">
-        <v>4279.9448529411766</v>
+        <v>3002.2228571428573</v>
       </c>
     </row>
     <row r="504" spans="1:20">
       <c r="A504" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D504" s="4" t="s">
         <v>223</v>
@@ -32372,28 +32372,28 @@
         <v>13</v>
       </c>
       <c r="F504" s="4">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="G504" s="5">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H504" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I504" s="7">
-        <v>-3808</v>
+        <v>-8916</v>
       </c>
       <c r="J504" s="8">
-        <v>3811.2277249999997</v>
+        <v>11397.365387999998</v>
       </c>
       <c r="K504" s="8">
-        <v>4186.9736000000003</v>
+        <v>11378.422144799999</v>
       </c>
       <c r="L504" s="8">
-        <v>4617.0595999999996</v>
+        <v>11596.277919599997</v>
       </c>
       <c r="M504" s="9">
-        <v>4205.0869749999993</v>
+        <v>11457.3551508</v>
       </c>
       <c r="N504" s="6" t="s">
         <v>530</v>
@@ -32402,30 +32402,30 @@
         <v>528</v>
       </c>
       <c r="P504" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q504" s="6" t="s">
         <v>548</v>
       </c>
       <c r="R504" s="10">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="S504" s="10">
-        <v>1294</v>
+        <v>950</v>
       </c>
       <c r="T504" s="11">
-        <v>3002.2228571428573</v>
+        <v>3006.8666666666668</v>
       </c>
     </row>
     <row r="505" spans="1:20">
       <c r="A505" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D505" s="4" t="s">
         <v>223</v>
@@ -32437,25 +32437,25 @@
         <v>3.2</v>
       </c>
       <c r="G505" s="5">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="H505" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I505" s="7">
-        <v>-8916</v>
+        <v>-2700</v>
       </c>
       <c r="J505" s="8">
-        <v>11397.365387999998</v>
+        <v>4566.0071359999993</v>
       </c>
       <c r="K505" s="8">
-        <v>11378.422144799999</v>
+        <v>4803.6699679999992</v>
       </c>
       <c r="L505" s="8">
-        <v>11596.277919599997</v>
+        <v>4731.6509279999991</v>
       </c>
       <c r="M505" s="9">
-        <v>11457.3551508</v>
+        <v>4700.4426773333325</v>
       </c>
       <c r="N505" s="6" t="s">
         <v>530</v>
@@ -32470,24 +32470,24 @@
         <v>548</v>
       </c>
       <c r="R505" s="10">
-        <v>333</v>
+        <v>463</v>
       </c>
       <c r="S505" s="10">
-        <v>950</v>
+        <v>1390</v>
       </c>
       <c r="T505" s="11">
-        <v>3006.8666666666668</v>
+        <v>3002.1117021276596</v>
       </c>
     </row>
     <row r="506" spans="1:20">
       <c r="A506" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D506" s="4" t="s">
         <v>223</v>
@@ -32499,25 +32499,25 @@
         <v>3.2</v>
       </c>
       <c r="G506" s="5">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="H506" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I506" s="7">
-        <v>-2700</v>
+        <v>-4000</v>
       </c>
       <c r="J506" s="8">
-        <v>4566.0071359999993</v>
+        <v>3785.8475087999986</v>
       </c>
       <c r="K506" s="8">
-        <v>4803.6699679999992</v>
+        <v>4193.2965715199989</v>
       </c>
       <c r="L506" s="8">
-        <v>4731.6509279999991</v>
+        <v>6149.6817731999981</v>
       </c>
       <c r="M506" s="9">
-        <v>4700.4426773333325</v>
+        <v>4709.6086178399992</v>
       </c>
       <c r="N506" s="6" t="s">
         <v>530</v>
@@ -32532,24 +32532,24 @@
         <v>548</v>
       </c>
       <c r="R506" s="10">
-        <v>463</v>
+        <v>340</v>
       </c>
       <c r="S506" s="10">
-        <v>1390</v>
+        <v>950</v>
       </c>
       <c r="T506" s="11">
-        <v>3002.1117021276596</v>
+        <v>3003.3333333333335</v>
       </c>
     </row>
     <row r="507" spans="1:20">
       <c r="A507" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D507" s="4" t="s">
         <v>223</v>
@@ -32561,25 +32561,25 @@
         <v>3.2</v>
       </c>
       <c r="G507" s="5">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="H507" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I507" s="7">
-        <v>-4000</v>
+        <v>-3300</v>
       </c>
       <c r="J507" s="8">
-        <v>3785.8475087999986</v>
+        <v>4245.9596467200008</v>
       </c>
       <c r="K507" s="8">
-        <v>4193.2965715199989</v>
+        <v>4036.7168793600003</v>
       </c>
       <c r="L507" s="8">
-        <v>6149.6817731999981</v>
+        <v>4352.8358016000002</v>
       </c>
       <c r="M507" s="9">
-        <v>4709.6086178399992</v>
+        <v>4211.8374425600005</v>
       </c>
       <c r="N507" s="6" t="s">
         <v>530</v>
@@ -32594,24 +32594,24 @@
         <v>548</v>
       </c>
       <c r="R507" s="10">
-        <v>340</v>
+        <v>503</v>
       </c>
       <c r="S507" s="10">
-        <v>950</v>
+        <v>1508</v>
       </c>
       <c r="T507" s="11">
-        <v>3003.3333333333335</v>
+        <v>3005.6715686274511</v>
       </c>
     </row>
     <row r="508" spans="1:20">
       <c r="A508" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D508" s="4" t="s">
         <v>223</v>
@@ -32623,25 +32623,25 @@
         <v>3.2</v>
       </c>
       <c r="G508" s="5">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="H508" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I508" s="7">
-        <v>-3300</v>
+        <v>-703</v>
       </c>
       <c r="J508" s="8">
-        <v>4245.9596467200008</v>
+        <v>903.96934992000024</v>
       </c>
       <c r="K508" s="8">
-        <v>4036.7168793600003</v>
+        <v>859.42134096000018</v>
       </c>
       <c r="L508" s="8">
-        <v>4352.8358016000002</v>
+        <v>926.72339760000023</v>
       </c>
       <c r="M508" s="9">
-        <v>4211.8374425600005</v>
+        <v>896.70469616000025</v>
       </c>
       <c r="N508" s="6" t="s">
         <v>530</v>
@@ -32656,24 +32656,24 @@
         <v>548</v>
       </c>
       <c r="R508" s="10">
-        <v>503</v>
+        <v>192</v>
       </c>
       <c r="S508" s="10">
-        <v>1508</v>
+        <v>614</v>
       </c>
       <c r="T508" s="11">
-        <v>3005.6715686274511</v>
+        <v>3000.6153846153848</v>
       </c>
     </row>
     <row r="509" spans="1:20">
       <c r="A509" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D509" s="4" t="s">
         <v>223</v>
@@ -32685,25 +32685,25 @@
         <v>3.2</v>
       </c>
       <c r="G509" s="5">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H509" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I509" s="7">
-        <v>-703</v>
+        <v>-700</v>
       </c>
       <c r="J509" s="8">
-        <v>903.96934992000024</v>
+        <v>535.65903072000003</v>
       </c>
       <c r="K509" s="8">
-        <v>859.42134096000018</v>
+        <v>748.19774303999998</v>
       </c>
       <c r="L509" s="8">
-        <v>926.72339760000023</v>
+        <v>785.93366016000004</v>
       </c>
       <c r="M509" s="9">
-        <v>896.70469616000025</v>
+        <v>689.93014464000009</v>
       </c>
       <c r="N509" s="6" t="s">
         <v>530</v>
@@ -32718,24 +32718,24 @@
         <v>548</v>
       </c>
       <c r="R509" s="10">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="S509" s="10">
-        <v>614</v>
+        <v>488</v>
       </c>
       <c r="T509" s="11">
-        <v>3000.6153846153848</v>
+        <v>3010.560606060606</v>
       </c>
     </row>
     <row r="510" spans="1:20">
       <c r="A510" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D510" s="4" t="s">
         <v>223</v>
@@ -32747,25 +32747,25 @@
         <v>3.2</v>
       </c>
       <c r="G510" s="5">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="H510" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I510" s="7">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="J510" s="8">
-        <v>535.65903072000003</v>
+        <v>421.390512</v>
       </c>
       <c r="K510" s="8">
-        <v>748.19774303999998</v>
+        <v>375.858</v>
       </c>
       <c r="L510" s="8">
-        <v>785.93366016000004</v>
+        <v>343.85637600000001</v>
       </c>
       <c r="M510" s="9">
-        <v>689.93014464000009</v>
+        <v>380.36829600000004</v>
       </c>
       <c r="N510" s="6" t="s">
         <v>530</v>
@@ -32780,24 +32780,24 @@
         <v>548</v>
       </c>
       <c r="R510" s="10">
-        <v>163</v>
+        <v>554</v>
       </c>
       <c r="S510" s="10">
-        <v>488</v>
+        <v>1664</v>
       </c>
       <c r="T510" s="11">
-        <v>3010.560606060606</v>
+        <v>3001.4488888888891</v>
       </c>
     </row>
     <row r="511" spans="1:20">
       <c r="A511" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>482</v>
+        <v>266</v>
       </c>
       <c r="D511" s="4" t="s">
         <v>223</v>
@@ -32809,25 +32809,25 @@
         <v>3.2</v>
       </c>
       <c r="G511" s="5">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="H511" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I511" s="7">
-        <v>0</v>
+        <v>-371.44299999999998</v>
       </c>
       <c r="J511" s="8">
-        <v>421.390512</v>
+        <v>5045.7295033600003</v>
       </c>
       <c r="K511" s="8">
-        <v>375.858</v>
+        <v>5546.0945321600002</v>
       </c>
       <c r="L511" s="8">
-        <v>343.85637600000001</v>
+        <v>6113.8942009600005</v>
       </c>
       <c r="M511" s="9">
-        <v>380.36829600000004</v>
+        <v>5568.5727454933331</v>
       </c>
       <c r="N511" s="6" t="s">
         <v>530</v>
@@ -32842,24 +32842,24 @@
         <v>548</v>
       </c>
       <c r="R511" s="10">
-        <v>554</v>
+        <v>448</v>
       </c>
       <c r="S511" s="10">
-        <v>1664</v>
+        <v>1346</v>
       </c>
       <c r="T511" s="11">
-        <v>3001.4488888888891</v>
+        <v>3000.6153846153848</v>
       </c>
     </row>
     <row r="512" spans="1:20">
       <c r="A512" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>266</v>
+        <v>483</v>
       </c>
       <c r="D512" s="4" t="s">
         <v>223</v>
@@ -32871,25 +32871,25 @@
         <v>3.2</v>
       </c>
       <c r="G512" s="5">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="H512" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I512" s="7">
-        <v>-371.44299999999998</v>
+        <v>0</v>
       </c>
       <c r="J512" s="8">
-        <v>5045.7295033600003</v>
+        <v>21.720070799999998</v>
       </c>
       <c r="K512" s="8">
-        <v>5546.0945321600002</v>
+        <v>24.3002088</v>
       </c>
       <c r="L512" s="8">
-        <v>6113.8942009600005</v>
+        <v>7.4120327999999995</v>
       </c>
       <c r="M512" s="9">
-        <v>5568.5727454933331</v>
+        <v>17.810770799999997</v>
       </c>
       <c r="N512" s="6" t="s">
         <v>530</v>
@@ -32904,24 +32904,24 @@
         <v>548</v>
       </c>
       <c r="R512" s="10">
-        <v>448</v>
+        <v>205</v>
       </c>
       <c r="S512" s="10">
-        <v>1346</v>
+        <v>614</v>
       </c>
       <c r="T512" s="11">
-        <v>3000.6153846153848</v>
+        <v>3010.7831325301204</v>
       </c>
     </row>
     <row r="513" spans="1:20">
       <c r="A513" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D513" s="4" t="s">
         <v>223</v>
@@ -32932,8 +32932,8 @@
       <c r="F513" s="4">
         <v>3.2</v>
       </c>
-      <c r="G513" s="5">
-        <v>83</v>
+      <c r="G513" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="H513" s="4" t="s">
         <v>14</v>
@@ -32942,16 +32942,16 @@
         <v>0</v>
       </c>
       <c r="J513" s="8">
-        <v>21.720070799999998</v>
+        <v>5.4669660799999997</v>
       </c>
       <c r="K513" s="8">
-        <v>24.3002088</v>
+        <v>0</v>
       </c>
       <c r="L513" s="8">
-        <v>7.4120327999999995</v>
+        <v>10.612345919999999</v>
       </c>
       <c r="M513" s="9">
-        <v>17.810770799999997</v>
+        <v>5.359770666666666</v>
       </c>
       <c r="N513" s="6" t="s">
         <v>530</v>
@@ -32966,24 +32966,24 @@
         <v>548</v>
       </c>
       <c r="R513" s="10">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="S513" s="10">
-        <v>614</v>
+        <v>1279</v>
       </c>
       <c r="T513" s="11">
-        <v>3010.7831325301204</v>
+        <v>3001.6994219653179</v>
       </c>
     </row>
     <row r="514" spans="1:20">
       <c r="A514" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D514" s="4" t="s">
         <v>223</v>
@@ -32994,8 +32994,8 @@
       <c r="F514" s="4">
         <v>3.2</v>
       </c>
-      <c r="G514" s="5" t="s">
-        <v>544</v>
+      <c r="G514" s="5">
+        <v>126</v>
       </c>
       <c r="H514" s="4" t="s">
         <v>14</v>
@@ -33004,16 +33004,16 @@
         <v>0</v>
       </c>
       <c r="J514" s="8">
-        <v>5.4669660799999997</v>
+        <v>134.89543620000001</v>
       </c>
       <c r="K514" s="8">
-        <v>0</v>
+        <v>98.371929600000001</v>
       </c>
       <c r="L514" s="8">
-        <v>10.612345919999999</v>
+        <v>127.13693580000002</v>
       </c>
       <c r="M514" s="9">
-        <v>5.359770666666666</v>
+        <v>120.1347672</v>
       </c>
       <c r="N514" s="6" t="s">
         <v>530</v>
@@ -33028,24 +33028,24 @@
         <v>548</v>
       </c>
       <c r="R514" s="10">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="S514" s="10">
-        <v>1279</v>
+        <v>900</v>
       </c>
       <c r="T514" s="11">
-        <v>3001.6994219653179</v>
+        <v>2902.3809523809523</v>
       </c>
     </row>
     <row r="515" spans="1:20">
       <c r="A515" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D515" s="4" t="s">
         <v>223</v>
@@ -33057,7 +33057,7 @@
         <v>3.2</v>
       </c>
       <c r="G515" s="5">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="H515" s="4" t="s">
         <v>14</v>
@@ -33066,16 +33066,16 @@
         <v>0</v>
       </c>
       <c r="J515" s="8">
-        <v>134.89543620000001</v>
+        <v>1113.5630688000003</v>
       </c>
       <c r="K515" s="8">
-        <v>98.371929600000001</v>
+        <v>576.3849312000001</v>
       </c>
       <c r="L515" s="8">
-        <v>127.13693580000002</v>
+        <v>675.52854720000016</v>
       </c>
       <c r="M515" s="9">
-        <v>120.1347672</v>
+        <v>788.49218240000016</v>
       </c>
       <c r="N515" s="6" t="s">
         <v>530</v>
@@ -33090,60 +33090,60 @@
         <v>548</v>
       </c>
       <c r="R515" s="10">
-        <v>300</v>
+        <v>567</v>
       </c>
       <c r="S515" s="10">
-        <v>900</v>
+        <v>1701</v>
       </c>
       <c r="T515" s="11">
-        <v>2902.3809523809523</v>
+        <v>3005.1</v>
       </c>
     </row>
     <row r="516" spans="1:20">
       <c r="A516" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="E516" s="4" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="F516" s="4">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="G516" s="5">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="H516" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I516" s="7">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J516" s="8">
-        <v>1113.5630688000003</v>
+        <v>535.63886249999996</v>
       </c>
       <c r="K516" s="8">
-        <v>576.3849312000001</v>
+        <v>563.51911874999996</v>
       </c>
       <c r="L516" s="8">
-        <v>675.52854720000016</v>
+        <v>555.07055624999998</v>
       </c>
       <c r="M516" s="9">
-        <v>788.49218240000016</v>
+        <v>551.40951250000001</v>
       </c>
       <c r="N516" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O516" s="6" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="P516" s="6" t="s">
         <v>529</v>
@@ -33152,24 +33152,24 @@
         <v>548</v>
       </c>
       <c r="R516" s="10">
-        <v>567</v>
+        <v>185</v>
       </c>
       <c r="S516" s="10">
-        <v>1701</v>
+        <v>555</v>
       </c>
       <c r="T516" s="11">
-        <v>3005.1</v>
+        <v>3006.8666666666668</v>
       </c>
     </row>
     <row r="517" spans="1:20">
       <c r="A517" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D517" s="4" t="s">
         <v>292</v>
@@ -33181,25 +33181,25 @@
         <v>1.4</v>
       </c>
       <c r="G517" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H517" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I517" s="7">
-        <v>-300</v>
+        <v>610</v>
       </c>
       <c r="J517" s="8">
-        <v>535.63886249999996</v>
+        <v>2700.4474799399995</v>
       </c>
       <c r="K517" s="8">
-        <v>563.51911874999996</v>
+        <v>2922.0099187649998</v>
       </c>
       <c r="L517" s="8">
-        <v>555.07055624999998</v>
+        <v>3664.5346245899996</v>
       </c>
       <c r="M517" s="9">
-        <v>551.40951250000001</v>
+        <v>3095.6640077649995</v>
       </c>
       <c r="N517" s="6" t="s">
         <v>528</v>
@@ -33214,24 +33214,24 @@
         <v>548</v>
       </c>
       <c r="R517" s="10">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="S517" s="10">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="T517" s="11">
-        <v>3006.8666666666668</v>
+        <v>3003.9642857142858</v>
       </c>
     </row>
     <row r="518" spans="1:20">
       <c r="A518" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D518" s="4" t="s">
         <v>292</v>
@@ -33243,25 +33243,25 @@
         <v>1.4</v>
       </c>
       <c r="G518" s="5">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H518" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I518" s="7">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="J518" s="8">
-        <v>2700.4474799399995</v>
+        <v>344.89916999999997</v>
       </c>
       <c r="K518" s="8">
-        <v>2922.0099187649998</v>
+        <v>362.85133499999995</v>
       </c>
       <c r="L518" s="8">
-        <v>3664.5346245899996</v>
+        <v>357.41128499999996</v>
       </c>
       <c r="M518" s="9">
-        <v>3095.6640077649995</v>
+        <v>355.05392999999998</v>
       </c>
       <c r="N518" s="6" t="s">
         <v>528</v>
@@ -33276,24 +33276,24 @@
         <v>548</v>
       </c>
       <c r="R518" s="10">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="S518" s="10">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="T518" s="11">
-        <v>3003.9642857142858</v>
+        <v>3005.943181818182</v>
       </c>
     </row>
     <row r="519" spans="1:20">
       <c r="A519" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D519" s="4" t="s">
         <v>292</v>
@@ -33305,7 +33305,7 @@
         <v>1.4</v>
       </c>
       <c r="G519" s="5">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H519" s="4" t="s">
         <v>14</v>
@@ -33314,16 +33314,16 @@
         <v>0</v>
       </c>
       <c r="J519" s="8">
-        <v>344.89916999999997</v>
+        <v>0</v>
       </c>
       <c r="K519" s="8">
-        <v>362.85133499999995</v>
+        <v>0</v>
       </c>
       <c r="L519" s="8">
-        <v>357.41128499999996</v>
+        <v>0</v>
       </c>
       <c r="M519" s="9">
-        <v>355.05392999999998</v>
+        <v>0</v>
       </c>
       <c r="N519" s="6" t="s">
         <v>528</v>
@@ -33338,24 +33338,24 @@
         <v>548</v>
       </c>
       <c r="R519" s="10">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="S519" s="10">
-        <v>651</v>
+        <v>702</v>
       </c>
       <c r="T519" s="11">
-        <v>3005.943181818182</v>
+        <v>3002.5894736842106</v>
       </c>
     </row>
     <row r="520" spans="1:20">
       <c r="A520" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D520" s="4" t="s">
         <v>292</v>
@@ -33367,25 +33367,25 @@
         <v>1.4</v>
       </c>
       <c r="G520" s="5">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H520" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I520" s="7">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J520" s="8">
-        <v>0</v>
+        <v>564.98084369999992</v>
       </c>
       <c r="K520" s="8">
-        <v>0</v>
+        <v>537.13833809999994</v>
       </c>
       <c r="L520" s="8">
-        <v>0</v>
+        <v>579.20212349999997</v>
       </c>
       <c r="M520" s="9">
-        <v>0</v>
+        <v>560.44043509999995</v>
       </c>
       <c r="N520" s="6" t="s">
         <v>528</v>
@@ -33400,24 +33400,24 @@
         <v>548</v>
       </c>
       <c r="R520" s="10">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="S520" s="10">
-        <v>702</v>
+        <v>776</v>
       </c>
       <c r="T520" s="11">
-        <v>3002.5894736842106</v>
+        <v>3006.8666666666668</v>
       </c>
     </row>
     <row r="521" spans="1:20">
       <c r="A521" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D521" s="4" t="s">
         <v>292</v>
@@ -33429,25 +33429,25 @@
         <v>1.4</v>
       </c>
       <c r="G521" s="5">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="H521" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I521" s="7">
-        <v>-400</v>
+        <v>-846</v>
       </c>
       <c r="J521" s="8">
-        <v>564.98084369999992</v>
+        <v>2812.3036614749994</v>
       </c>
       <c r="K521" s="8">
-        <v>537.13833809999994</v>
+        <v>3017.4252800999993</v>
       </c>
       <c r="L521" s="8">
-        <v>579.20212349999997</v>
+        <v>3158.6036443499997</v>
       </c>
       <c r="M521" s="9">
-        <v>560.44043509999995</v>
+        <v>2996.1108619749994</v>
       </c>
       <c r="N521" s="6" t="s">
         <v>528</v>
@@ -33462,10 +33462,10 @@
         <v>548</v>
       </c>
       <c r="R521" s="10">
-        <v>259</v>
+        <v>407</v>
       </c>
       <c r="S521" s="10">
-        <v>776</v>
+        <v>1220</v>
       </c>
       <c r="T521" s="11">
         <v>3006.8666666666668</v>
@@ -33473,13 +33473,13 @@
     </row>
     <row r="522" spans="1:20">
       <c r="A522" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D522" s="4" t="s">
         <v>292</v>
@@ -33491,25 +33491,25 @@
         <v>1.4</v>
       </c>
       <c r="G522" s="5">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="H522" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I522" s="7">
-        <v>-846</v>
+        <v>-1000</v>
       </c>
       <c r="J522" s="8">
-        <v>2812.3036614749994</v>
+        <v>1229.3620612</v>
       </c>
       <c r="K522" s="8">
-        <v>3017.4252800999993</v>
+        <v>1351.2730321999998</v>
       </c>
       <c r="L522" s="8">
-        <v>3158.6036443499997</v>
+        <v>1489.6140531999999</v>
       </c>
       <c r="M522" s="9">
-        <v>2996.1108619749994</v>
+        <v>1356.7497155333333</v>
       </c>
       <c r="N522" s="6" t="s">
         <v>528</v>
@@ -33524,24 +33524,24 @@
         <v>548</v>
       </c>
       <c r="R522" s="10">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="S522" s="10">
-        <v>1220</v>
+        <v>850</v>
       </c>
       <c r="T522" s="11">
-        <v>3006.8666666666668</v>
+        <v>2999.8</v>
       </c>
     </row>
     <row r="523" spans="1:20">
       <c r="A523" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D523" s="4" t="s">
         <v>292</v>
@@ -33553,7 +33553,7 @@
         <v>1.4</v>
       </c>
       <c r="G523" s="5">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H523" s="4" t="s">
         <v>14</v>
@@ -33562,16 +33562,16 @@
         <v>-1000</v>
       </c>
       <c r="J523" s="8">
-        <v>1229.3620612</v>
+        <v>1151.5497839999998</v>
       </c>
       <c r="K523" s="8">
-        <v>1351.2730321999998</v>
+        <v>1218.8481479999998</v>
       </c>
       <c r="L523" s="8">
-        <v>1489.6140531999999</v>
+        <v>1099.206612</v>
       </c>
       <c r="M523" s="9">
-        <v>1356.7497155333333</v>
+        <v>1156.534848</v>
       </c>
       <c r="N523" s="6" t="s">
         <v>528</v>
@@ -33586,24 +33586,24 @@
         <v>548</v>
       </c>
       <c r="R523" s="10">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="S523" s="10">
-        <v>850</v>
+        <v>799</v>
       </c>
       <c r="T523" s="11">
-        <v>2999.8</v>
+        <v>3002.3518518518517</v>
       </c>
     </row>
     <row r="524" spans="1:20">
       <c r="A524" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>292</v>
@@ -33615,25 +33615,25 @@
         <v>1.4</v>
       </c>
       <c r="G524" s="5">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H524" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I524" s="7">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="J524" s="8">
-        <v>1151.5497839999998</v>
+        <v>0</v>
       </c>
       <c r="K524" s="8">
-        <v>1218.8481479999998</v>
+        <v>0</v>
       </c>
       <c r="L524" s="8">
-        <v>1099.206612</v>
+        <v>0</v>
       </c>
       <c r="M524" s="9">
-        <v>1156.534848</v>
+        <v>0</v>
       </c>
       <c r="N524" s="6" t="s">
         <v>528</v>
@@ -33648,24 +33648,24 @@
         <v>548</v>
       </c>
       <c r="R524" s="10">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="S524" s="10">
-        <v>799</v>
+        <v>858</v>
       </c>
       <c r="T524" s="11">
-        <v>3002.3518518518517</v>
+        <v>3005.4655172413795</v>
       </c>
     </row>
     <row r="525" spans="1:20">
       <c r="A525" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>292</v>
@@ -33677,25 +33677,25 @@
         <v>1.4</v>
       </c>
       <c r="G525" s="5">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H525" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I525" s="7">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="J525" s="8">
-        <v>0</v>
+        <v>1695.5781926999998</v>
       </c>
       <c r="K525" s="8">
-        <v>0</v>
+        <v>1859.6510897999999</v>
       </c>
       <c r="L525" s="8">
-        <v>0</v>
+        <v>2047.4792016000004</v>
       </c>
       <c r="M525" s="9">
-        <v>0</v>
+        <v>1867.5694947</v>
       </c>
       <c r="N525" s="6" t="s">
         <v>528</v>
@@ -33710,24 +33710,24 @@
         <v>548</v>
       </c>
       <c r="R525" s="10">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="S525" s="10">
-        <v>858</v>
+        <v>887</v>
       </c>
       <c r="T525" s="11">
-        <v>3005.4655172413795</v>
+        <v>3006.8666666666668</v>
       </c>
     </row>
     <row r="526" spans="1:20">
       <c r="A526" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>292</v>
@@ -33739,25 +33739,25 @@
         <v>1.4</v>
       </c>
       <c r="G526" s="5">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="H526" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I526" s="7">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="J526" s="8">
-        <v>1695.5781926999998</v>
+        <v>1085.1416099999999</v>
       </c>
       <c r="K526" s="8">
-        <v>1859.6510897999999</v>
+        <v>1228.4621999999999</v>
       </c>
       <c r="L526" s="8">
-        <v>2047.4792016000004</v>
+        <v>1306.2648059999999</v>
       </c>
       <c r="M526" s="9">
-        <v>1867.5694947</v>
+        <v>1206.6228719999999</v>
       </c>
       <c r="N526" s="6" t="s">
         <v>528</v>
@@ -33769,27 +33769,27 @@
         <v>529</v>
       </c>
       <c r="Q526" s="6" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="R526" s="10">
-        <v>296</v>
+        <v>759</v>
       </c>
       <c r="S526" s="10">
-        <v>887</v>
+        <v>1395</v>
       </c>
       <c r="T526" s="11">
-        <v>3006.8666666666668</v>
+        <v>4283.4305555555557</v>
       </c>
     </row>
     <row r="527" spans="1:20">
       <c r="A527" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D527" s="4" t="s">
         <v>292</v>
@@ -33801,25 +33801,25 @@
         <v>1.4</v>
       </c>
       <c r="G527" s="5">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="H527" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I527" s="7">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="J527" s="8">
-        <v>1085.1416099999999</v>
+        <v>100.45546875000001</v>
       </c>
       <c r="K527" s="8">
-        <v>1228.4621999999999</v>
+        <v>90.15234375</v>
       </c>
       <c r="L527" s="8">
-        <v>1306.2648059999999</v>
+        <v>82.424999999999997</v>
       </c>
       <c r="M527" s="9">
-        <v>1206.6228719999999</v>
+        <v>91.010937500000011</v>
       </c>
       <c r="N527" s="6" t="s">
         <v>528</v>
@@ -33831,27 +33831,27 @@
         <v>529</v>
       </c>
       <c r="Q527" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="R527" s="10">
-        <v>759</v>
+        <v>308</v>
       </c>
       <c r="S527" s="10">
-        <v>1395</v>
+        <v>924</v>
       </c>
       <c r="T527" s="11">
-        <v>4283.4305555555557</v>
+        <v>3003.616</v>
       </c>
     </row>
     <row r="528" spans="1:20">
       <c r="A528" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D528" s="4" t="s">
         <v>292</v>
@@ -33863,25 +33863,25 @@
         <v>1.4</v>
       </c>
       <c r="G528" s="5">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="H528" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I528" s="7">
-        <v>0</v>
+        <v>6335</v>
       </c>
       <c r="J528" s="8">
-        <v>100.45546875000001</v>
+        <v>0</v>
       </c>
       <c r="K528" s="8">
-        <v>90.15234375</v>
+        <v>0</v>
       </c>
       <c r="L528" s="8">
-        <v>82.424999999999997</v>
+        <v>0</v>
       </c>
       <c r="M528" s="9">
-        <v>91.010937500000011</v>
+        <v>0</v>
       </c>
       <c r="N528" s="6" t="s">
         <v>528</v>
@@ -33896,24 +33896,24 @@
         <v>548</v>
       </c>
       <c r="R528" s="10">
-        <v>308</v>
+        <v>505</v>
       </c>
       <c r="S528" s="10">
-        <v>924</v>
+        <v>1516</v>
       </c>
       <c r="T528" s="11">
-        <v>3003.616</v>
+        <v>3002.9024390243903</v>
       </c>
     </row>
     <row r="529" spans="1:20">
       <c r="A529" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D529" s="4" t="s">
         <v>292</v>
@@ -33925,25 +33925,25 @@
         <v>1.4</v>
       </c>
       <c r="G529" s="5">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H529" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I529" s="7">
-        <v>6335</v>
+        <v>-820</v>
       </c>
       <c r="J529" s="8">
-        <v>0</v>
+        <v>1307.4820583999997</v>
       </c>
       <c r="K529" s="8">
-        <v>0</v>
+        <v>1437.1398803999996</v>
       </c>
       <c r="L529" s="8">
-        <v>0</v>
+        <v>1584.2718023999996</v>
       </c>
       <c r="M529" s="9">
-        <v>0</v>
+        <v>1442.9645803999995</v>
       </c>
       <c r="N529" s="6" t="s">
         <v>528</v>
@@ -33958,24 +33958,24 @@
         <v>548</v>
       </c>
       <c r="R529" s="10">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="S529" s="10">
-        <v>1516</v>
+        <v>1384</v>
       </c>
       <c r="T529" s="11">
-        <v>3002.9024390243903</v>
+        <v>3001.5</v>
       </c>
     </row>
     <row r="530" spans="1:20">
       <c r="A530" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>292</v>
@@ -33987,25 +33987,25 @@
         <v>1.4</v>
       </c>
       <c r="G530" s="5">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H530" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I530" s="7">
-        <v>-820</v>
+        <v>-2550</v>
       </c>
       <c r="J530" s="8">
-        <v>1307.4820583999997</v>
+        <v>3181.4820218999998</v>
       </c>
       <c r="K530" s="8">
-        <v>1437.1398803999996</v>
+        <v>3492.5242988999998</v>
       </c>
       <c r="L530" s="8">
-        <v>1584.2718023999996</v>
+        <v>3898.3965383999998</v>
       </c>
       <c r="M530" s="9">
-        <v>1442.9645803999995</v>
+        <v>3524.1342863999998</v>
       </c>
       <c r="N530" s="6" t="s">
         <v>528</v>
@@ -34020,24 +34020,24 @@
         <v>548</v>
       </c>
       <c r="R530" s="10">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="S530" s="10">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="T530" s="11">
-        <v>3001.5</v>
+        <v>3006.8666666666668</v>
       </c>
     </row>
     <row r="531" spans="1:20">
       <c r="A531" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>292</v>
@@ -34049,25 +34049,25 @@
         <v>1.4</v>
       </c>
       <c r="G531" s="5">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H531" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I531" s="7">
-        <v>-2550</v>
+        <v>232</v>
       </c>
       <c r="J531" s="8">
-        <v>3181.4820218999998</v>
+        <v>1330.1197</v>
       </c>
       <c r="K531" s="8">
-        <v>3492.5242988999998</v>
+        <v>1465.8462</v>
       </c>
       <c r="L531" s="8">
-        <v>3898.3965383999998</v>
+        <v>1574.4274</v>
       </c>
       <c r="M531" s="9">
-        <v>3524.1342863999998</v>
+        <v>1456.7977666666666</v>
       </c>
       <c r="N531" s="6" t="s">
         <v>528</v>
@@ -34082,60 +34082,60 @@
         <v>548</v>
       </c>
       <c r="R531" s="10">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="S531" s="10">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="T531" s="11">
-        <v>3006.8666666666668</v>
+        <v>3002.5894736842106</v>
       </c>
     </row>
     <row r="532" spans="1:20">
       <c r="A532" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="E532" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F532" s="4">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="G532" s="5">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="H532" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I532" s="7">
-        <v>232</v>
+        <v>-4410</v>
       </c>
       <c r="J532" s="8">
-        <v>1330.1197</v>
+        <v>5110.8951039999993</v>
       </c>
       <c r="K532" s="8">
-        <v>1465.8462</v>
+        <v>4029.1907263999997</v>
       </c>
       <c r="L532" s="8">
-        <v>1574.4274</v>
+        <v>5457.1451647999993</v>
       </c>
       <c r="M532" s="9">
-        <v>1456.7977666666666</v>
+        <v>4865.7436650666668</v>
       </c>
       <c r="N532" s="6" t="s">
         <v>528</v>
       </c>
       <c r="O532" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P532" s="6" t="s">
         <v>529</v>
@@ -34144,54 +34144,54 @@
         <v>548</v>
       </c>
       <c r="R532" s="10">
-        <v>468</v>
+        <v>611</v>
       </c>
       <c r="S532" s="10">
-        <v>1377</v>
+        <v>1834</v>
       </c>
       <c r="T532" s="11">
-        <v>3002.5894736842106</v>
+        <v>3003.2620967741937</v>
       </c>
     </row>
     <row r="533" spans="1:20">
       <c r="A533" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D533" s="4" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="E533" s="4" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="F533" s="4">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G533" s="5">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="H533" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I533" s="7">
-        <v>-4410</v>
+        <v>-1502</v>
       </c>
       <c r="J533" s="8">
-        <v>5110.8951039999993</v>
+        <v>6556.3553250000004</v>
       </c>
       <c r="K533" s="8">
-        <v>4029.1907263999997</v>
+        <v>6710.3105062499999</v>
       </c>
       <c r="L533" s="8">
-        <v>5457.1451647999993</v>
+        <v>6802.6147312499997</v>
       </c>
       <c r="M533" s="9">
-        <v>4865.7436650666668</v>
+        <v>6689.7601875</v>
       </c>
       <c r="N533" s="6" t="s">
         <v>528</v>
@@ -34205,61 +34205,59 @@
       <c r="Q533" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="R533" s="10">
-        <v>611</v>
-      </c>
+      <c r="R533" s="10"/>
       <c r="S533" s="10">
-        <v>1834</v>
+        <v>800</v>
       </c>
       <c r="T533" s="11">
-        <v>3003.2620967741937</v>
+        <v>8137.5022222222224</v>
       </c>
     </row>
     <row r="534" spans="1:20">
       <c r="A534" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="E534" s="4" t="s">
-        <v>182</v>
+        <v>506</v>
       </c>
       <c r="F534" s="4">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="G534" s="5">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="H534" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I534" s="7">
-        <v>-1502</v>
+        <v>0</v>
       </c>
       <c r="J534" s="8">
-        <v>6556.3553250000004</v>
+        <v>0</v>
       </c>
       <c r="K534" s="8">
-        <v>6710.3105062499999</v>
+        <v>0</v>
       </c>
       <c r="L534" s="8">
-        <v>6802.6147312499997</v>
+        <v>0</v>
       </c>
       <c r="M534" s="9">
-        <v>6689.7601875</v>
+        <v>0</v>
       </c>
       <c r="N534" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O534" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P534" s="6" t="s">
         <v>529</v>
@@ -34269,21 +34267,21 @@
       </c>
       <c r="R534" s="10"/>
       <c r="S534" s="10">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T534" s="11">
-        <v>8137.5022222222224</v>
+        <v>511.89499589827733</v>
       </c>
     </row>
     <row r="535" spans="1:20">
       <c r="A535" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D535" s="4" t="s">
         <v>223</v>
@@ -34295,7 +34293,7 @@
         <v>4</v>
       </c>
       <c r="G535" s="5">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="H535" s="4" t="s">
         <v>14</v>
@@ -34332,18 +34330,18 @@
         <v>500</v>
       </c>
       <c r="T535" s="11">
-        <v>511.89499589827733</v>
+        <v>644.79081214109931</v>
       </c>
     </row>
     <row r="536" spans="1:20">
       <c r="A536" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>223</v>
@@ -34355,25 +34353,25 @@
         <v>4</v>
       </c>
       <c r="G536" s="5">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H536" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I536" s="7">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J536" s="8">
-        <v>0</v>
+        <v>1703.6806644000001</v>
       </c>
       <c r="K536" s="8">
-        <v>0</v>
+        <v>1033.0578648000001</v>
       </c>
       <c r="L536" s="8">
-        <v>0</v>
+        <v>1744.3006464</v>
       </c>
       <c r="M536" s="9">
-        <v>0</v>
+        <v>1493.6797251999999</v>
       </c>
       <c r="N536" s="6" t="s">
         <v>530</v>
@@ -34389,21 +34387,21 @@
       </c>
       <c r="R536" s="10"/>
       <c r="S536" s="10">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T536" s="11">
-        <v>644.79081214109931</v>
+        <v>7032.6923076923076</v>
       </c>
     </row>
     <row r="537" spans="1:20">
       <c r="A537" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>223</v>
@@ -34415,25 +34413,25 @@
         <v>4</v>
       </c>
       <c r="G537" s="5">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="H537" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I537" s="7">
-        <v>-900</v>
+        <v>1456</v>
       </c>
       <c r="J537" s="8">
-        <v>1703.6806644000001</v>
+        <v>3847.7824000000001</v>
       </c>
       <c r="K537" s="8">
-        <v>1033.0578648000001</v>
+        <v>4094.1824000000001</v>
       </c>
       <c r="L537" s="8">
-        <v>1744.3006464</v>
+        <v>4169.0879999999997</v>
       </c>
       <c r="M537" s="9">
-        <v>1493.6797251999999</v>
+        <v>4037.0175999999997</v>
       </c>
       <c r="N537" s="6" t="s">
         <v>530</v>
@@ -34452,18 +34450,18 @@
         <v>800</v>
       </c>
       <c r="T537" s="11">
-        <v>7032.6923076923076</v>
+        <v>1058.2444626743234</v>
       </c>
     </row>
     <row r="538" spans="1:20">
       <c r="A538" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>223</v>
@@ -34475,25 +34473,25 @@
         <v>4</v>
       </c>
       <c r="G538" s="5">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="H538" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I538" s="7">
-        <v>1456</v>
+        <v>-1640</v>
       </c>
       <c r="J538" s="8">
-        <v>3847.7824000000001</v>
+        <v>4563.7587389999999</v>
       </c>
       <c r="K538" s="8">
-        <v>4094.1824000000001</v>
+        <v>3897.370355</v>
       </c>
       <c r="L538" s="8">
-        <v>4169.0879999999997</v>
+        <v>4264.042128</v>
       </c>
       <c r="M538" s="9">
-        <v>4037.0175999999997</v>
+        <v>4241.7237406666673</v>
       </c>
       <c r="N538" s="6" t="s">
         <v>530</v>
@@ -34512,18 +34510,18 @@
         <v>800</v>
       </c>
       <c r="T538" s="11">
-        <v>1058.2444626743234</v>
+        <v>8692</v>
       </c>
     </row>
     <row r="539" spans="1:20">
       <c r="A539" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>223</v>
@@ -34535,25 +34533,25 @@
         <v>4</v>
       </c>
       <c r="G539" s="5">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="H539" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I539" s="7">
-        <v>-1640</v>
+        <v>715</v>
       </c>
       <c r="J539" s="8">
-        <v>4563.7587389999999</v>
+        <v>0</v>
       </c>
       <c r="K539" s="8">
-        <v>3897.370355</v>
+        <v>0</v>
       </c>
       <c r="L539" s="8">
-        <v>4264.042128</v>
+        <v>0</v>
       </c>
       <c r="M539" s="9">
-        <v>4241.7237406666673</v>
+        <v>0</v>
       </c>
       <c r="N539" s="6" t="s">
         <v>530</v>
@@ -34569,21 +34567,21 @@
       </c>
       <c r="R539" s="10"/>
       <c r="S539" s="10">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T539" s="11">
-        <v>8692</v>
+        <v>393.76538146021335</v>
       </c>
     </row>
     <row r="540" spans="1:20">
       <c r="A540" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>223</v>
@@ -34595,13 +34593,13 @@
         <v>4</v>
       </c>
       <c r="G540" s="5">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H540" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I540" s="7">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="J540" s="8">
         <v>0</v>
@@ -34629,21 +34627,21 @@
       </c>
       <c r="R540" s="10"/>
       <c r="S540" s="10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T540" s="11">
-        <v>393.76538146021335</v>
+        <v>462.67432321575063</v>
       </c>
     </row>
     <row r="541" spans="1:20">
       <c r="A541" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>223</v>
@@ -34655,7 +34653,7 @@
         <v>4</v>
       </c>
       <c r="G541" s="5">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="H541" s="4" t="s">
         <v>14</v>
@@ -34676,34 +34674,36 @@
         <v>0</v>
       </c>
       <c r="N541" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="O541" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="O541" s="6" t="s">
-        <v>528</v>
-      </c>
       <c r="P541" s="6" t="s">
         <v>529</v>
       </c>
       <c r="Q541" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="R541" s="10"/>
+      <c r="R541" s="10">
+        <v>300</v>
+      </c>
       <c r="S541" s="10">
         <v>500</v>
       </c>
       <c r="T541" s="11">
-        <v>462.67432321575063</v>
+        <v>1828.5</v>
       </c>
     </row>
     <row r="542" spans="1:20">
       <c r="A542" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D542" s="4" t="s">
         <v>223</v>
@@ -34715,25 +34715,25 @@
         <v>4</v>
       </c>
       <c r="G542" s="5">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H542" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I542" s="7">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J542" s="8">
-        <v>0</v>
+        <v>230.28039999999999</v>
       </c>
       <c r="K542" s="8">
-        <v>0</v>
+        <v>1873.2308</v>
       </c>
       <c r="L542" s="8">
-        <v>0</v>
+        <v>2889.4418000000001</v>
       </c>
       <c r="M542" s="9">
-        <v>0</v>
+        <v>1664.3176666666666</v>
       </c>
       <c r="N542" s="6" t="s">
         <v>528</v>
@@ -34747,25 +34747,21 @@
       <c r="Q542" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="R542" s="10">
-        <v>300</v>
-      </c>
-      <c r="S542" s="10">
-        <v>500</v>
-      </c>
+      <c r="R542" s="10"/>
+      <c r="S542" s="10"/>
       <c r="T542" s="11">
-        <v>1828.5</v>
+        <v>2949.1935483870966</v>
       </c>
     </row>
     <row r="543" spans="1:20">
       <c r="A543" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D543" s="4" t="s">
         <v>223</v>
@@ -34777,25 +34773,25 @@
         <v>4</v>
       </c>
       <c r="G543" s="5">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="H543" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I543" s="7">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J543" s="8">
-        <v>230.28039999999999</v>
+        <v>66.40079999999999</v>
       </c>
       <c r="K543" s="8">
-        <v>1873.2308</v>
+        <v>540.14160000000004</v>
       </c>
       <c r="L543" s="8">
-        <v>2889.4418000000001</v>
+        <v>833.16359999999997</v>
       </c>
       <c r="M543" s="9">
-        <v>1664.3176666666666</v>
+        <v>479.90200000000004</v>
       </c>
       <c r="N543" s="6" t="s">
         <v>528</v>
@@ -34812,18 +34808,18 @@
       <c r="R543" s="10"/>
       <c r="S543" s="10"/>
       <c r="T543" s="11">
-        <v>2949.1935483870966</v>
+        <v>6500.0059777777788</v>
       </c>
     </row>
     <row r="544" spans="1:20">
       <c r="A544" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D544" s="4" t="s">
         <v>223</v>
@@ -34835,7 +34831,7 @@
         <v>4</v>
       </c>
       <c r="G544" s="5">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H544" s="4" t="s">
         <v>14</v>
@@ -34844,16 +34840,16 @@
         <v>0</v>
       </c>
       <c r="J544" s="8">
-        <v>66.40079999999999</v>
+        <v>65.009999999999991</v>
       </c>
       <c r="K544" s="8">
-        <v>540.14160000000004</v>
+        <v>65.009999999999991</v>
       </c>
       <c r="L544" s="8">
-        <v>833.16359999999997</v>
+        <v>65.009999999999991</v>
       </c>
       <c r="M544" s="9">
-        <v>479.90200000000004</v>
+        <v>65.009999999999991</v>
       </c>
       <c r="N544" s="6" t="s">
         <v>528</v>
@@ -34870,30 +34866,30 @@
       <c r="R544" s="10"/>
       <c r="S544" s="10"/>
       <c r="T544" s="11">
-        <v>6500.0059777777788</v>
+        <v>861.38249999999982</v>
       </c>
     </row>
     <row r="545" spans="1:20">
       <c r="A545" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>506</v>
+        <v>13</v>
       </c>
       <c r="F545" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G545" s="5">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="H545" s="4" t="s">
         <v>14</v>
@@ -34902,22 +34898,22 @@
         <v>0</v>
       </c>
       <c r="J545" s="8">
-        <v>65.009999999999991</v>
+        <v>0</v>
       </c>
       <c r="K545" s="8">
-        <v>65.009999999999991</v>
+        <v>0</v>
       </c>
       <c r="L545" s="8">
-        <v>65.009999999999991</v>
+        <v>0</v>
       </c>
       <c r="M545" s="9">
-        <v>65.009999999999991</v>
+        <v>0</v>
       </c>
       <c r="N545" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O545" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P545" s="6" t="s">
         <v>529</v>
@@ -34928,18 +34924,18 @@
       <c r="R545" s="10"/>
       <c r="S545" s="10"/>
       <c r="T545" s="11">
-        <v>861.38249999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:20">
       <c r="A546" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D546" s="4" t="s">
         <v>12</v>
@@ -34951,25 +34947,25 @@
         <v>6</v>
       </c>
       <c r="G546" s="5">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="H546" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I546" s="7">
-        <v>0</v>
+        <v>-5614</v>
       </c>
       <c r="J546" s="8">
-        <v>0</v>
+        <v>20263.636000000002</v>
       </c>
       <c r="K546" s="8">
-        <v>0</v>
+        <v>21135.258400000002</v>
       </c>
       <c r="L546" s="8">
-        <v>0</v>
+        <v>15187.798400000001</v>
       </c>
       <c r="M546" s="9">
-        <v>0</v>
+        <v>18862.230933333336</v>
       </c>
       <c r="N546" s="6" t="s">
         <v>530</v>
@@ -34986,18 +34982,18 @@
       <c r="R546" s="10"/>
       <c r="S546" s="10"/>
       <c r="T546" s="11">
-        <v>0</v>
+        <v>38019.255555555559</v>
       </c>
     </row>
     <row r="547" spans="1:20">
       <c r="A547" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D547" s="4" t="s">
         <v>12</v>
@@ -35009,25 +35005,25 @@
         <v>6</v>
       </c>
       <c r="G547" s="5">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H547" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I547" s="7">
-        <v>-5614</v>
+        <v>13</v>
       </c>
       <c r="J547" s="8">
-        <v>20263.636000000002</v>
+        <v>2857.248</v>
       </c>
       <c r="K547" s="8">
-        <v>21135.258400000002</v>
+        <v>2959.6991999999996</v>
       </c>
       <c r="L547" s="8">
-        <v>15187.798400000001</v>
+        <v>1588.7592</v>
       </c>
       <c r="M547" s="9">
-        <v>18862.230933333336</v>
+        <v>2468.5687999999996</v>
       </c>
       <c r="N547" s="6" t="s">
         <v>530</v>
@@ -35044,18 +35040,18 @@
       <c r="R547" s="10"/>
       <c r="S547" s="10"/>
       <c r="T547" s="11">
-        <v>38019.255555555559</v>
+        <v>15275.052625380707</v>
       </c>
     </row>
     <row r="548" spans="1:20">
       <c r="A548" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D548" s="4" t="s">
         <v>12</v>
@@ -35067,25 +35063,25 @@
         <v>6</v>
       </c>
       <c r="G548" s="5">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="H548" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I548" s="7">
-        <v>13</v>
+        <v>-992</v>
       </c>
       <c r="J548" s="8">
-        <v>2857.248</v>
+        <v>2287.34</v>
       </c>
       <c r="K548" s="8">
-        <v>2959.6991999999996</v>
+        <v>1424.8400000000001</v>
       </c>
       <c r="L548" s="8">
-        <v>1588.7592</v>
+        <v>1667.5</v>
       </c>
       <c r="M548" s="9">
-        <v>2468.5687999999996</v>
+        <v>1793.2266666666667</v>
       </c>
       <c r="N548" s="6" t="s">
         <v>530</v>
@@ -35102,54 +35098,54 @@
       <c r="R548" s="10"/>
       <c r="S548" s="10"/>
       <c r="T548" s="11">
-        <v>15275.052625380707</v>
+        <v>12466.474226804125</v>
       </c>
     </row>
     <row r="549" spans="1:20">
       <c r="A549" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>13</v>
+        <v>522</v>
       </c>
       <c r="F549" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G549" s="5">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="H549" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I549" s="7">
-        <v>-992</v>
+        <v>7002</v>
       </c>
       <c r="J549" s="8">
-        <v>2287.34</v>
+        <v>393.25040000000001</v>
       </c>
       <c r="K549" s="8">
-        <v>1424.8400000000001</v>
+        <v>3198.9208000000003</v>
       </c>
       <c r="L549" s="8">
-        <v>1667.5</v>
+        <v>4934.3068000000003</v>
       </c>
       <c r="M549" s="9">
-        <v>1793.2266666666667</v>
+        <v>2842.1593333333335</v>
       </c>
       <c r="N549" s="6" t="s">
         <v>530</v>
       </c>
       <c r="O549" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P549" s="6" t="s">
         <v>529</v>
@@ -35160,18 +35156,18 @@
       <c r="R549" s="10"/>
       <c r="S549" s="10"/>
       <c r="T549" s="11">
-        <v>12466.474226804125</v>
+        <v>29360.951079096045</v>
       </c>
     </row>
     <row r="550" spans="1:20">
       <c r="A550" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D550" s="4" t="s">
         <v>223</v>
@@ -35183,25 +35179,25 @@
         <v>8</v>
       </c>
       <c r="G550" s="5">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H550" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I550" s="7">
-        <v>7002</v>
+        <v>299</v>
       </c>
       <c r="J550" s="8">
-        <v>393.25040000000001</v>
+        <v>637.43999999999994</v>
       </c>
       <c r="K550" s="8">
-        <v>3198.9208000000003</v>
+        <v>717.12</v>
       </c>
       <c r="L550" s="8">
-        <v>4934.3068000000003</v>
+        <v>597.59999999999991</v>
       </c>
       <c r="M550" s="9">
-        <v>2842.1593333333335</v>
+        <v>650.71999999999991</v>
       </c>
       <c r="N550" s="6" t="s">
         <v>530</v>
@@ -35218,51 +35214,51 @@
       <c r="R550" s="10"/>
       <c r="S550" s="10"/>
       <c r="T550" s="11">
-        <v>29360.951079096045</v>
+        <v>8438.5923404255318</v>
       </c>
     </row>
     <row r="551" spans="1:20">
       <c r="A551" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="E551" s="4" t="s">
-        <v>522</v>
+        <v>437</v>
       </c>
       <c r="F551" s="4">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="G551" s="5">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="H551" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I551" s="7">
-        <v>299</v>
+        <v>-200</v>
       </c>
       <c r="J551" s="8">
-        <v>637.43999999999994</v>
+        <v>45.9</v>
       </c>
       <c r="K551" s="8">
-        <v>717.12</v>
+        <v>36.72</v>
       </c>
       <c r="L551" s="8">
-        <v>597.59999999999991</v>
+        <v>45.9</v>
       </c>
       <c r="M551" s="9">
-        <v>650.71999999999991</v>
+        <v>42.84</v>
       </c>
       <c r="N551" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O551" s="6" t="s">
         <v>529</v>
@@ -35276,18 +35272,18 @@
       <c r="R551" s="10"/>
       <c r="S551" s="10"/>
       <c r="T551" s="11">
-        <v>8438.5923404255318</v>
+        <v>1523.75</v>
       </c>
     </row>
     <row r="552" spans="1:20">
       <c r="A552" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D552" s="4" t="s">
         <v>292</v>
@@ -35299,25 +35295,25 @@
         <v>1.4</v>
       </c>
       <c r="G552" s="5">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="H552" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I552" s="7">
-        <v>-200</v>
+        <v>-135</v>
       </c>
       <c r="J552" s="8">
-        <v>45.9</v>
+        <v>264.02999999999997</v>
       </c>
       <c r="K552" s="8">
-        <v>36.72</v>
+        <v>211.22399999999999</v>
       </c>
       <c r="L552" s="8">
-        <v>45.9</v>
+        <v>264.02999999999997</v>
       </c>
       <c r="M552" s="9">
-        <v>42.84</v>
+        <v>246.42799999999997</v>
       </c>
       <c r="N552" s="6" t="s">
         <v>528</v>
@@ -35334,18 +35330,18 @@
       <c r="R552" s="10"/>
       <c r="S552" s="10"/>
       <c r="T552" s="11">
-        <v>1523.75</v>
+        <v>632.94230769230774</v>
       </c>
     </row>
     <row r="553" spans="1:20">
       <c r="A553" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D553" s="4" t="s">
         <v>292</v>
@@ -35357,25 +35353,25 @@
         <v>1.4</v>
       </c>
       <c r="G553" s="5">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="H553" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I553" s="7">
-        <v>-135</v>
+        <v>-500</v>
       </c>
       <c r="J553" s="8">
-        <v>264.02999999999997</v>
+        <v>1200</v>
       </c>
       <c r="K553" s="8">
-        <v>211.22399999999999</v>
+        <v>2000</v>
       </c>
       <c r="L553" s="8">
-        <v>264.02999999999997</v>
+        <v>2000</v>
       </c>
       <c r="M553" s="9">
-        <v>246.42799999999997</v>
+        <v>1733.3333333333333</v>
       </c>
       <c r="N553" s="6" t="s">
         <v>528</v>
@@ -35390,80 +35386,22 @@
         <v>548</v>
       </c>
       <c r="R553" s="10"/>
-      <c r="S553" s="10"/>
+      <c r="S553" s="10">
+        <v>500</v>
+      </c>
       <c r="T553" s="11">
-        <v>632.94230769230774</v>
-      </c>
-    </row>
-    <row r="554" spans="1:20">
-      <c r="A554" s="1">
-        <v>553</v>
-      </c>
-      <c r="B554" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C554" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D554" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E554" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F554" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="G554" s="5">
-        <v>120</v>
-      </c>
-      <c r="H554" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I554" s="7">
-        <v>-500</v>
-      </c>
-      <c r="J554" s="8">
-        <v>1200</v>
-      </c>
-      <c r="K554" s="8">
-        <v>2000</v>
-      </c>
-      <c r="L554" s="8">
-        <v>2000</v>
-      </c>
-      <c r="M554" s="9">
-        <v>1733.3333333333333</v>
-      </c>
-      <c r="N554" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="O554" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="P554" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q554" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="R554" s="10"/>
-      <c r="S554" s="10">
-        <v>500</v>
-      </c>
-      <c r="T554" s="11">
         <v>5079.166666666667</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U554" xr:uid="{25BB3797-9B7D-400C-A811-52216776806E}"/>
-  <conditionalFormatting sqref="C2:C554">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I554">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <autoFilter ref="A1:U553" xr:uid="{25BB3797-9B7D-400C-A811-52216776806E}"/>
+  <conditionalFormatting sqref="I2:I553">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C553">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
